--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5095000</v>
+        <v>3601200</v>
       </c>
       <c r="E8" s="3">
-        <v>9846000</v>
+        <v>6919300</v>
       </c>
       <c r="F8" s="3">
-        <v>4638600</v>
+        <v>4853700</v>
       </c>
       <c r="G8" s="3">
-        <v>10484300</v>
+        <v>9379900</v>
       </c>
       <c r="H8" s="3">
-        <v>4858400</v>
+        <v>4419000</v>
       </c>
       <c r="I8" s="3">
+        <v>6840300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4628400</v>
+      </c>
+      <c r="K8" s="3">
         <v>9686600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4595900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10635100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4759400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9978500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4831200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10340000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,43 +797,49 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>8261300</v>
+        <v>5462000</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>8331900</v>
+        <v>7870200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>5345600</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>8039600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>8278100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>8194100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>13701700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,43 +847,49 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1584700</v>
+        <v>1457200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>2152400</v>
+        <v>1509700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
+        <v>1494700</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1647000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2357000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1784400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,43 +1017,49 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>17200</v>
+        <v>42500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>36700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>25300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-295800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,20 +1090,26 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>127600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>119600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1134,49 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>8993200</v>
+        <v>6194600</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>9739400</v>
+        <v>8567400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>6368700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>8634900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>9091000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>9033700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>8352300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>852900</v>
+        <v>724700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>744900</v>
+        <v>812500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>471600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>1051700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>1544000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>944800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1987700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>4800</v>
+        <v>101000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>247400</v>
+        <v>4600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>209500</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>210900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>361800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>239100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>109800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>1322800</v>
+        <v>1227800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>1422000</v>
+        <v>1260200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>1090300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1536000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>2206400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1486100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2400000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,43 +1354,49 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>239400</v>
+        <v>205100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>195000</v>
+        <v>228100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3">
+        <v>174800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>168200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>171000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>167600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>167900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1404,49 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>618200</v>
+        <v>620600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>797400</v>
+        <v>589000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>506300</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>1094400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>1734900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>1016300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1929600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,43 +1454,49 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>166500</v>
+        <v>180100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>245900</v>
+        <v>158600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>141600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>182300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>335900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>189800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>323700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1554,49 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>451700</v>
+        <v>440500</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>551500</v>
+        <v>430300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>364700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>912100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>1399000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>826500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1606000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1604,49 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>403900</v>
+        <v>388600</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>495400</v>
+        <v>384800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>325300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>869300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>1323200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>777500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1520000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,41 +1689,47 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>-4700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>9400</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>155700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>268700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,43 +1854,49 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-4800</v>
+        <v>-101000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>-247400</v>
+        <v>-4600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>-209500</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-210900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-361800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-239100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-109800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1904,49 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>403900</v>
+        <v>383900</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>504800</v>
+        <v>384800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>480900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>869300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>1591900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>777500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1520000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +2004,104 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>403900</v>
+        <v>383900</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>504800</v>
+        <v>384800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>480900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>869300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>1591900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>777500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1520000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2149,49 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>2809500</v>
+        <v>3656600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>3417200</v>
+        <v>2676500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
+        <v>3255400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>2871300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>3119100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>3725100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2970900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2037,11 +2216,11 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
@@ -2049,14 +2228,20 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>237900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,43 +2249,49 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>16286600</v>
+        <v>13978300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>16347700</v>
+        <v>15515500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
+        <v>15573700</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>15659500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>15736500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>14605800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>16171500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,43 +2299,49 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>542300</v>
+        <v>430400</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>473800</v>
+        <v>516700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="3">
+        <v>451400</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>524600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>1076600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>1113600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>527200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,43 +2349,49 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>518400</v>
+        <v>953000</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>373100</v>
+        <v>493900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="3">
+        <v>355400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>546200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>390400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>529400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>427600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2399,49 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>20156800</v>
+        <v>19018400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>20611800</v>
+        <v>19202500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
+        <v>19635900</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>19601700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>19769200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>19395900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>20335200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,43 +2449,49 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>1699100</v>
+        <v>1615000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>1892000</v>
+        <v>1618700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
+        <v>1802400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2366400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2893900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>3138300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3133600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,43 +2499,49 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>3632300</v>
+        <v>3215100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>1400100</v>
+        <v>3460300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
+        <v>1333800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>1332600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1277600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1213700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1275600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2549,49 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>19441700</v>
+        <v>14335200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>19450100</v>
+        <v>18521200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
+        <v>18529200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>19246300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>19527200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>19816900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20320200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2699,49 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>437100</v>
+        <v>400900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>430500</v>
+        <v>416400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>410100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>439900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>438900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>466900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>454700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2799,49 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>45367000</v>
+        <v>38584600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>43784500</v>
+        <v>43219100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
+        <v>41711500</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>42987000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>43906700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>44031700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>45519200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,43 +2889,49 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>13074600</v>
+        <v>12940200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>13797500</v>
+        <v>12455500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>13144300</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>12676500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>13139200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>12223200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>13939300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,43 +2939,49 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>1969200</v>
+        <v>940300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>1325300</v>
+        <v>1876000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
+        <v>1262500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>413100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1628000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>2433800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1320100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,43 +2989,49 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>6136100</v>
+        <v>5357800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>6350000</v>
+        <v>5845500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>6049400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>6098600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6282500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6122800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6816900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,43 +3039,49 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>21179800</v>
+        <v>19238300</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>21472800</v>
+        <v>20177100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
+        <v>20456100</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>19188100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>20235700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>19563000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>22076200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,43 +3089,49 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9394500</v>
+        <v>7383200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>7284700</v>
+        <v>8949700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>6939800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>8446400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>8152500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8598700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7327800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +3139,49 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>1817800</v>
+        <v>1564000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>2348900</v>
+        <v>1731800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>2237700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>2432700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>2532700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>3021700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3253300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3339,49 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>32915100</v>
+        <v>28643000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>31655100</v>
+        <v>31356700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
+        <v>30156300</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>30603800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>31532300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>31753700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>33240800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3609,49 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>13103800</v>
+        <v>10527300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>12843900</v>
+        <v>12483400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
+        <v>12235800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>13135200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>12986500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>12828500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>12629500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3809,49 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>12452000</v>
+        <v>9941600</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>12129400</v>
+        <v>11862400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="3">
+        <v>11555100</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>12383200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>12374400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>12278000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12278400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3964,49 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>403900</v>
+        <v>383900</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>504800</v>
+        <v>384800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>480900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>869300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>1591900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>777500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1520000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,43 +4034,49 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>441500</v>
+        <v>388200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>403200</v>
+        <v>420600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>384100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>249800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>277000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>278300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>275200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>-163400</v>
+        <v>2434800</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>2095500</v>
+        <v>-155700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>1996300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>94200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1724900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>111600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2248600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4404,49 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-188600</v>
+        <v>-238200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-202700</v>
+        <v>-179700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-193100</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-204300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-246400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-130400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-187600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4554,49 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>78900</v>
+        <v>2092000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-33500</v>
+        <v>75100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>272000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-238300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-413500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-790700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-924300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-966200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-920500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-980200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-811800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4824,49 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>-401000</v>
+        <v>-3216700</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-1722000</v>
+        <v>-382000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>-1640500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-364300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>681500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,43 +4874,49 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>15100</v>
+        <v>-124900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>21500</v>
+        <v>14400</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-101000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-58700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>23200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>71900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +4924,45 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-470500</v>
+        <v>1185200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>361500</v>
+        <v>-448200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>344400</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-99000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-278200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>402900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>397000</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3601200</v>
+        <v>7373600</v>
       </c>
       <c r="E8" s="3">
-        <v>6919300</v>
+        <v>3862000</v>
       </c>
       <c r="F8" s="3">
-        <v>4853700</v>
+        <v>7420300</v>
       </c>
       <c r="G8" s="3">
-        <v>9379900</v>
+        <v>5205200</v>
       </c>
       <c r="H8" s="3">
-        <v>4419000</v>
+        <v>8411100</v>
       </c>
       <c r="I8" s="3">
-        <v>6840300</v>
+        <v>4739000</v>
       </c>
       <c r="J8" s="3">
+        <v>7335700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4628400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9686600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4595900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10635100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4759400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9978500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4831200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10340000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5462000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7870200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5345600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>6346000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5857600</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7038200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5732800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>8039600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>8278100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>8194100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>13701700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1457200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1509700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1494700</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1027600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1562800</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1372800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1602900</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1647000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2357000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1784400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>42500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>16100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>36700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>25300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>-295800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,20 +1119,23 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>127600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>119600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6194600</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8567400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6368700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>10681900</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6643200</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7641400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6829900</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>8634900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>9091000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>9033700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>8352300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>724700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>812500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>471600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>-3308300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>777200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>769600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>1051700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>1544000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>944800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>1987700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>101000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>209500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>108300</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>224700</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>210900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>361800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>239100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>109800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1227800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1260200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1090300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>-2800900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1316700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1248500</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1169300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1536000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>2206400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1486100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>2400000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>205100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>228100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>174800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>219900</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>233100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>187400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>168200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>171000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>167600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>167900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>620600</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>589000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>506300</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>-3409500</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>665500</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>540200</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>543000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>1094400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>1734900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>1016300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>1929600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>180100</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>158600</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>141600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>193100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>144400</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>182300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>335900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>189800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>323700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>440500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>430300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>364700</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>-3441200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>472400</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>395800</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>391100</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>912100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>1399000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>826500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>1606000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>388600</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>384800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>325300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>-3469100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>416700</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>355600</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>348800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>869300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>1323200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>777500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>1520000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,44 +1753,47 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-5000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>155700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="H29" s="3">
+        <v>57100</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>268700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-101000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-209500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-210900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-361800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-239100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-109800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>383900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>384800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>480900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>-3478000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>411700</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>412600</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>515800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>869300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>1591900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>777500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>1520000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>383900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>384800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>480900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>-3478000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>411700</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>412600</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>515800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>869300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>1591900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>777500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>1520000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3656600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2676500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3255400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>3648800</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3921400</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2870300</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3491100</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>2871300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>3119100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>3725100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>2970900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2222,8 +2312,8 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
@@ -2234,364 +2324,388 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>237900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>13978300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>15515500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>15573700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>11833600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>14990600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>16639000</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16701500</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>15659500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>15736500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>14605800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>16171500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>430400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>516700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>451400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>461600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>554100</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>484100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>524600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>1076600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>1113600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>527200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>953000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>493900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>355400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>478100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>529600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>381200</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>546200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>390400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>529400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>427600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>19018400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>19202500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>19635900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>16373200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>20395600</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>20593100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>21057900</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>19601700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>19769200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>19395900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>20335200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1615000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1618700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1802400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1735900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>2366400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>2893900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>3138300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>3133600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3215100</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3460300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1333800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>3550200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3447900</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3710900</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1430400</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>1332600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1277600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1213700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1275600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>14335200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>18521200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>18529200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>12691600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15373300</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>19862400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19871000</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>19246300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>19527200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>19816900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>20320200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>416400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>410100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>429900</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>446600</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>439900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>438900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>466900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>454700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>38584600</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>43219100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>41711500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>34283000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>41378800</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>46348900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>44732100</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>42987000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>43906700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>44031700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>45519200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>12940200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>12455500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>13144300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>9700700</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13877300</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>13357500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14096100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>12676500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>13139200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>12223200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>13939300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>940300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1876000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1262500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1008400</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2011800</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1353900</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>413100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1628000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>2433800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1320100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5357800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>5845500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6049400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>5045300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5745800</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6268900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6487500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>6098600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>6282500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6122800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6816900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>19238300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>20177100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>20456100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>15621000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>20631500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>21638200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>21937500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>19188100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>20235700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>19563000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>22076200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9471900</v>
       </c>
       <c r="E61" s="3">
-        <v>7383200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7917900</v>
       </c>
       <c r="G61" s="3">
-        <v>8949700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9597800</v>
       </c>
       <c r="I61" s="3">
-        <v>6939800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>7442400</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>8446400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>8152500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>8598700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7327800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1564000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1731800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2237700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>1571500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1677300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1857200</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2399700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>2432700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>2532700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>3021700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>3253300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>28643000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>31356700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>30156300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>27151000</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>30717200</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>33627400</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32340200</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>30603800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>31532300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>31753700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>33240800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>10527300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>12483400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>12235800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>7692500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>11289700</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>13387400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13121900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>13135200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>12986500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>12828500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>12629500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>9941600</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>11862400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>11555100</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>7132000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10661500</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>12721500</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12391900</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>12383200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>12374400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>12278000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>12278400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>383900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>384800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>480900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>-3478000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>411700</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>412600</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>515800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>869300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>1591900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>777500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>1520000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>388200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>420600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>384100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>391900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>416300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>451000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>249800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>277000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>278300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>275200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2434800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-155700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1996300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>-530800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2611100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2140900</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>94200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1724900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>111600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2248600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-238200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-179700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-193100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-255400</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-192700</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-207100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-204300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-246400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-130400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-187600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>2092000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>75100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2243500</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>80600</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>272000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-238300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-413500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-790700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-924300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-991300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4636,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-920500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-987200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4648,11 +4882,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-980200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4660,13 +4894,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-811800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-3216700</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-382000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1640500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>231300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3449600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-409700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1759300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-364300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>681500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-124900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-101000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-58700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>23200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>71900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1185200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-448200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>344400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-330200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-480600</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>369300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-99000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-278200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>402900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>397000</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7373600</v>
+        <v>3952900</v>
       </c>
       <c r="E8" s="3">
-        <v>3862000</v>
+        <v>7432800</v>
       </c>
       <c r="F8" s="3">
-        <v>7420300</v>
+        <v>3893000</v>
       </c>
       <c r="G8" s="3">
-        <v>5205200</v>
+        <v>7479900</v>
       </c>
       <c r="H8" s="3">
-        <v>8411100</v>
+        <v>5247000</v>
       </c>
       <c r="I8" s="3">
-        <v>4739000</v>
+        <v>8478600</v>
       </c>
       <c r="J8" s="3">
+        <v>4777100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7335700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4628400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9686600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4595900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10635100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4759400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9978500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4831200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10340000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>6346000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5857600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7038200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6397000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5904600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7094800</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>5732800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>8039600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>8278100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8194100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>13701700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1027600</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1562800</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1372800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1035800</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1575300</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1383900</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1602900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1647000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2357000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1784400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,84 +1045,90 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>67900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45900</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>17300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>36700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>25300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>-295800</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1122,20 +1145,23 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>127600</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>119600</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>10681900</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6643200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7641400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10767700</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6696500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7702800</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>6829900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>8634900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>9091000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>9033700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>8352300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-3308300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>777200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>769600</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3334900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>783400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>775800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>505700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>1051700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>1544000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>944800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>1987700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>102900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>108300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>109200</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>224700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>210900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>361800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>239100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>109800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-2800900</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1316700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1248500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2823400</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1327300</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1169300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1536000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>2206400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1486100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>2400000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>204100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>219900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>233100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>205700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>221700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>235000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>187400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>168200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>171000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>167600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>167900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-3409500</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>665500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>540200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3436900</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>670900</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>544500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>543000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>1094400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>1734900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1016300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>1929600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>31700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>193100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>144400</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>194700</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>151900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>182300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>335900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>189800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>323700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-3441200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>472400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>395800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3468800</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>476200</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>399000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>391100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>912100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>1399000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>826500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>1606000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-3469100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>416700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>355600</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3496900</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>420100</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>358400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>348800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>869300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>1323200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>777500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>1520000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,47 +1814,50 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>57100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>57500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>166900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>268700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-102900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-108300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-224700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-210900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-361800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-239100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-109800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-3478000</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>411700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>412600</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3506000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>415000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>415900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>515800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>869300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>1591900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>777500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>1520000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-3478000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>411700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>412600</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3506000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>415000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>415900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>515800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>869300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>1591900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>777500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>1520000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>3648800</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3921400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2870300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3678100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3952900</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2893400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>3491100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>2871300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>3119100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3725100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>2970900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
@@ -2327,385 +2417,409 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>237900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>11833600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>14990600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>16639000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11928700</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15111000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>16772700</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>16701500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>15659500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>15736500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>14605800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>16171500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>412600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>461600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>554100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>415900</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>465300</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>558500</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>484100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>524600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>1076600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1113600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>527200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>478100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1022000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>529600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1030200</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>533900</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>381200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>546200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>390400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>529400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>427600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>16373200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>20395600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>20593100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>16504700</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>20559500</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>20758500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>21057900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>19601700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>19769200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>19395900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>20335200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1397000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1732000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1735900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1408200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1745900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1749900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1933000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2366400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2893900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3138300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>3133600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>3550200</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3447900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3710900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3578700</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3475600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3740700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>1430400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1332600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1277600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1213700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1275600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>12691600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>15373300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>19862400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12793600</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15496800</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>20022000</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>19871000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>19246300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>19527200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19816900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>20320200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>271000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>429900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>446600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>273200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>433400</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>450100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>439800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>439900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>438900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>466900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>454700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>34283000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>41378800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>46348900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>34558400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>41711200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>46721200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>44732100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>42987000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>43906700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>44031700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>45519200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>9700700</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>13877300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>13357500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9778600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13988800</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13464800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>14096100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>12676500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>13139200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>12223200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>13939300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>875000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1008400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2011800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>882100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1016500</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2028000</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1353900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>413100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1628000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2433800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>1320100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>5045300</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5745800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6268900</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5085800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5792000</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6319200</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>6487500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6098600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6282500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6122800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6816900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>15621000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>20631500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>21638200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15746500</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>20797300</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>21812100</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>21937500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>19188100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>20235700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>19563000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>22076200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9471900</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>9548000</v>
       </c>
       <c r="F61" s="3">
-        <v>7917900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7981500</v>
       </c>
       <c r="H61" s="3">
-        <v>9597800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>9674900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7442400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>8446400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8152500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8598700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7327800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>1571500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1677300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1857200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1690700</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1872100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>2399700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>2432700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>2532700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3021700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>3253300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>27151000</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>30717200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>33627400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27369100</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>30964000</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>33897600</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>32340200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>30603800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>31532300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>31753700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>33240800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>7692500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>11289700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>13387400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7754300</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>11380400</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>13494900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>13121900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>13135200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>12986500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>12828500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>12629500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>7132000</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>10661500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>12721500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7189300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>10747200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>12823600</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>12391900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>12383200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>12374400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12278000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>12278400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-3478000</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>411700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>412600</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3506000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>415000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>415900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>515800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>869300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>1591900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>777500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>1520000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>391900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>416300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>451000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>395000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>419700</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>454700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>412000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>249800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>277000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>278300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>275200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-530800</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>2611100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-166900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-535100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>2140900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>94200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1724900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>111600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>2248600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-160200</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-255400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-192700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-257500</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-194300</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-207100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-204300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-246400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-130400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-187600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>2243500</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>80600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2261500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>81200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>272000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-238300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-413500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-790700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-991300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-999200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4873,11 +5107,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-987200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4885,11 +5119,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-980200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4897,13 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-811800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>231300</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-3449600</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-409700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>233100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-3477400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-364300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>681500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>9400</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-133900</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>21900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-101000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-58700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>23200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>71900</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-330200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1271000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-480600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-332900</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1281200</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-484500</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>369300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-99000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-278200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>402900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>397000</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3952900</v>
+        <v>4077000</v>
       </c>
       <c r="E8" s="3">
-        <v>7432800</v>
+        <v>7666100</v>
       </c>
       <c r="F8" s="3">
-        <v>3893000</v>
+        <v>4015200</v>
       </c>
       <c r="G8" s="3">
-        <v>7479900</v>
+        <v>9428200</v>
       </c>
       <c r="H8" s="3">
-        <v>5247000</v>
+        <v>5411700</v>
       </c>
       <c r="I8" s="3">
-        <v>8478600</v>
+        <v>8744700</v>
       </c>
       <c r="J8" s="3">
-        <v>4777100</v>
+        <v>4927000</v>
       </c>
       <c r="K8" s="3">
         <v>7335700</v>
@@ -811,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>6397000</v>
+        <v>6597800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>5904600</v>
+        <v>7547500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>7094800</v>
+        <v>7317500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -867,19 +867,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1035800</v>
+        <v>1068300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>1575300</v>
+        <v>1880700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>1383900</v>
+        <v>1427300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -1057,19 +1057,19 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>68400</v>
+        <v>70600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1188,19 +1188,19 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>10767700</v>
+        <v>11105700</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>6696500</v>
+        <v>8514500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>7702800</v>
+        <v>7944600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1244,19 +1244,19 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-3334900</v>
+        <v>-3439600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>783400</v>
+        <v>913700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>775800</v>
+        <v>800200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1322,19 +1322,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>103700</v>
+        <v>107000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>109200</v>
+        <v>432700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1378,19 +1378,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>-2823400</v>
+        <v>-2912000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>1327300</v>
+        <v>1794800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>1258600</v>
+        <v>1298100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1434,19 +1434,19 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>205700</v>
+        <v>212200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>221700</v>
+        <v>240600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>235000</v>
+        <v>242400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1490,19 +1490,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>-3436900</v>
+        <v>-3544800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>670900</v>
+        <v>1105800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>544500</v>
+        <v>561600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -1546,19 +1546,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>194700</v>
+        <v>227500</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>145500</v>
+        <v>150100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1658,19 +1658,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>-3468800</v>
+        <v>-3577700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>476200</v>
+        <v>878300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>399000</v>
+        <v>411500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -1714,19 +1714,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>-3496900</v>
+        <v>-3606700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>420100</v>
+        <v>811400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>358400</v>
+        <v>369700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -1826,19 +1826,19 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-5100</v>
+        <v>-64500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>57500</v>
+        <v>59300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1994,19 +1994,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-103700</v>
+        <v>-107000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>-109200</v>
+        <v>-432700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2050,19 +2050,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>-3506000</v>
+        <v>-3616000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>415000</v>
+        <v>746900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>415900</v>
+        <v>429000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2162,19 +2162,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>-3506000</v>
+        <v>-3616000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>415000</v>
+        <v>746900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>415900</v>
+        <v>429000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2323,19 +2323,19 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>3678100</v>
+        <v>3793600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>3952900</v>
+        <v>15524900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>2893400</v>
+        <v>2984200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2435,19 +2435,19 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>11928700</v>
+        <v>12303100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>15111000</v>
+        <v>31819600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
-        <v>16772700</v>
+        <v>17299200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -2491,19 +2491,19 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>415900</v>
+        <v>429000</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>465300</v>
+        <v>479900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="3">
-        <v>558500</v>
+        <v>576100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2547,19 +2547,19 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>482000</v>
+        <v>497100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>1030200</v>
+        <v>1062600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="3">
-        <v>533900</v>
+        <v>550600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -2603,19 +2603,19 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>16504700</v>
+        <v>17022700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>20559500</v>
+        <v>32652700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
-        <v>20758500</v>
+        <v>21410100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -2659,19 +2659,19 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>1408200</v>
+        <v>1452400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>1745900</v>
+        <v>1989600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>1749900</v>
+        <v>1804800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -2715,19 +2715,19 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>3578700</v>
+        <v>3691000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>3475600</v>
+        <v>3584700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>3740700</v>
+        <v>3858100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2771,19 +2771,19 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>12793600</v>
+        <v>13195100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>15496800</v>
+        <v>17917700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>20022000</v>
+        <v>20650400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2939,19 +2939,19 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>273200</v>
+        <v>281800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>433400</v>
+        <v>447000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>450100</v>
+        <v>464300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3051,19 +3051,19 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>34558400</v>
+        <v>35643100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>41711200</v>
+        <v>54385700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
-        <v>46721200</v>
+        <v>48187700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3151,19 +3151,19 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>9778600</v>
+        <v>10085500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>13988800</v>
+        <v>33910800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
-        <v>13464800</v>
+        <v>13887500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3207,19 +3207,19 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>882100</v>
+        <v>909700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>1016500</v>
+        <v>13129800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
-        <v>2028000</v>
+        <v>2091600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3263,19 +3263,19 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>5085800</v>
+        <v>5245400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>5792000</v>
+        <v>5973800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>6319200</v>
+        <v>6517600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3319,19 +3319,19 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>15746500</v>
+        <v>16240700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>20797300</v>
+        <v>32899700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
-        <v>21812100</v>
+        <v>22496700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9548000</v>
+        <v>9847700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>7981500</v>
+        <v>8232000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9674900</v>
+        <v>9978600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>1584100</v>
+        <v>1633800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>1690700</v>
+        <v>2361200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>1872100</v>
+        <v>1930800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3655,19 +3655,19 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>27369100</v>
+        <v>28228100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>30964000</v>
+        <v>43339200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>33897600</v>
+        <v>34961600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -3957,19 +3957,19 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>7754300</v>
+        <v>7997700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>11380400</v>
+        <v>11699600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>13494900</v>
+        <v>13918500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4181,19 +4181,19 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>7189300</v>
+        <v>7415000</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>10747200</v>
+        <v>11046500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="3">
-        <v>12823600</v>
+        <v>13226200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -4354,19 +4354,19 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>-3506000</v>
+        <v>-3616000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>415000</v>
+        <v>746900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>415900</v>
+        <v>429000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
@@ -4432,19 +4432,19 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>395000</v>
+        <v>407400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>419700</v>
+        <v>432800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>454700</v>
+        <v>468900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -4768,19 +4768,19 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>-535100</v>
+        <v>-551900</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>2632000</v>
+        <v>2714700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>-168300</v>
+        <v>-173600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -4846,19 +4846,19 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-161500</v>
+        <v>-166600</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-257500</v>
+        <v>-265600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-194300</v>
+        <v>-200300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -5014,19 +5014,19 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-40300</v>
+        <v>-41600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>2261500</v>
+        <v>2332500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>81200</v>
+        <v>83800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-999200</v>
+        <v>-1030600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5316,19 +5316,19 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>233100</v>
+        <v>240400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-3477400</v>
+        <v>-3586500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>-413000</v>
+        <v>-426000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -5372,19 +5372,19 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>-135000</v>
+        <v>-139200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -5428,19 +5428,19 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-332900</v>
+        <v>-343300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>1281200</v>
+        <v>1321400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>-484500</v>
+        <v>-499700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4077000</v>
+        <v>4099600</v>
       </c>
       <c r="E8" s="3">
-        <v>7666100</v>
+        <v>9085100</v>
       </c>
       <c r="F8" s="3">
-        <v>4015200</v>
+        <v>4201500</v>
       </c>
       <c r="G8" s="3">
-        <v>9428200</v>
+        <v>7900100</v>
       </c>
       <c r="H8" s="3">
-        <v>5411700</v>
+        <v>4137800</v>
       </c>
       <c r="I8" s="3">
+        <v>9716000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5576900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8744700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4927000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7335700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4628400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9686600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4595900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10635100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4759400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>9978500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4831200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>10340000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,55 +824,61 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>6597800</v>
+        <v>7334800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>7547500</v>
+        <v>6799200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>7777900</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>7317500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>5732800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>8039600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8278100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>8194100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>13701700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,55 +886,61 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1068300</v>
+        <v>1750300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>1880700</v>
+        <v>1101000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
+        <v>1938100</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1427300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1602900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1647000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2357000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1784400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,55 +1096,61 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>70600</v>
+        <v>134000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>47000</v>
+        <v>72700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>18700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>17300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>36700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>25300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>-295800</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1175,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1148,20 +1193,26 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>127600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>119600</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1241,61 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>11105700</v>
+        <v>8971100</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>8514500</v>
+        <v>11444700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>8774400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>7944600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>6829900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>8634900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>9091000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>9033700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>8352300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-3439600</v>
+        <v>114100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>913700</v>
+        <v>-3544600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>941600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>800200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>505700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>1051700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1544000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>944800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>1987700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1389,61 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>107000</v>
+        <v>-195700</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>432700</v>
+        <v>110200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>445900</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>224700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>210900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>361800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>239100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>109800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>-2912000</v>
+        <v>377800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>1794800</v>
+        <v>-3000900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>1849500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1298100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1169300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1536000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2206400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1486100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>2400000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,55 +1513,61 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>212200</v>
+        <v>214400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>240600</v>
+        <v>218600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3">
+        <v>247900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>242400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>187400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>168200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>171000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>167600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>167900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,55 +1575,61 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>-3544800</v>
+        <v>-296000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>1105800</v>
+        <v>-3653000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>1139600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>561600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>543000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>1094400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1734900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>1016300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>1929600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,55 +1637,61 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>33000</v>
+        <v>149000</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>227500</v>
+        <v>34000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>234500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>150100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>151900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>182300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>335900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>189800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>323700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1761,61 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>-3577700</v>
+        <v>-445100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>878300</v>
+        <v>-3686900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>905100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>411500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>391100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>912100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1399000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>826500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>1606000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1823,61 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>-3606700</v>
+        <v>-491500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>811400</v>
+        <v>-3716800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>836200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>369700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>348800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>869300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1323200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>777500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>1520000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1826,44 +1947,44 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-9300</v>
+        <v>18800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-64500</v>
+        <v>-9600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>59300</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>166900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>268700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,55 +2133,61 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-107000</v>
+        <v>195700</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>-432700</v>
+        <v>-110200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>-445900</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-224700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-210900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-361800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-239100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-109800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2195,61 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>-3616000</v>
+        <v>-472600</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>746900</v>
+        <v>-3726400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>769700</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>429000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>515800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>869300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1591900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>777500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>1520000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2319,128 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>-3616000</v>
+        <v>-472600</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>746900</v>
+        <v>-3726400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>769700</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>429000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>515800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>869300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1591900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>777500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>1520000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,55 +2496,61 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>3793600</v>
+        <v>18253600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>15524900</v>
+        <v>3909400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
+        <v>15998800</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>2984200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>3491100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>2871300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3119100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>3725100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>2970900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2408,11 +2587,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
@@ -2420,14 +2599,20 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>237900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,55 +2620,61 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>12303100</v>
+        <v>14990300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>31819600</v>
+        <v>12678700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
+        <v>16061100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>17299200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>16701500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>15659500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>15736500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>14605800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>16171500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,55 +2682,61 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>429000</v>
+        <v>373700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>479900</v>
+        <v>442100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="3">
+        <v>494600</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>576100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>484100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>524600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1076600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>1113600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>527200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,55 +2744,61 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>497100</v>
+        <v>351400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>1062600</v>
+        <v>512300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>550600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>381200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>546200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>390400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>529400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>427600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,55 +2806,61 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>17022700</v>
+        <v>33969000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>32652700</v>
+        <v>17542400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
+        <v>33649500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>21410100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>21057900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>19601700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>19769200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>19395900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>20335200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,55 +2868,61 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>1452400</v>
+        <v>1051100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>1989600</v>
+        <v>1496800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
+        <v>1855600</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1804800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1933000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2366400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2893900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>3138300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>3133600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,55 +2930,61 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>3691000</v>
+        <v>3248200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>3584700</v>
+        <v>3803700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
+        <v>3694100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>3858100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1430400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1332600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1277600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1213700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>1275600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,55 +2992,61 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>13195100</v>
+        <v>12422000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>17917700</v>
+        <v>13597900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
+        <v>16386100</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>20650400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>19871000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>19246300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19527200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>19816900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>20320200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,55 +3178,61 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>281800</v>
+        <v>522300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>447000</v>
+        <v>290400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>460600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>464300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>439800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>439900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>438900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>466900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>454700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3302,61 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>35643100</v>
+        <v>51212700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>54385700</v>
+        <v>36731200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
+        <v>56046000</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>48187700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>44732100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>42987000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>43906700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>44031700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>45519200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,55 +3412,61 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>10085500</v>
+        <v>14525100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>33910800</v>
+        <v>10393400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>14869700</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>13887500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>14096100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>12676500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>13139200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>12223200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>13939300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,55 +3474,61 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>909700</v>
+        <v>12655300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>13129800</v>
+        <v>937500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
+        <v>13211300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>2091600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1353900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>413100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1628000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>2433800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>1320100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,55 +3536,61 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>5245400</v>
+        <v>5556100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>5973800</v>
+        <v>5405600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>6513600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>6517600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6487500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6098600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6282500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6122800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6816900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3598,61 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>16240700</v>
+        <v>32736600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>32899700</v>
+        <v>16736500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
+        <v>33904100</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>22496700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>21937500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>19188100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>20235700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>19563000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>22076200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,55 +3660,61 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9847700</v>
+        <v>9634100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8232000</v>
+        <v>10148300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>8483300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>9978600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7442400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8446400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8152500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>8598700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7327800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,55 +3722,61 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>1633800</v>
+        <v>1531000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>2361200</v>
+        <v>1683700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>1749400</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1930800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>2399700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>2432700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2532700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>3021700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>3253300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3970,61 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>28228100</v>
+        <v>44351800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>43339200</v>
+        <v>29089900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
+        <v>44662300</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>34961600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>32340200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>30603800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>31532300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>31753700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>33240800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4289,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,55 +4304,61 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>7997700</v>
+        <v>7453000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>11699600</v>
+        <v>8241900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
+        <v>12056700</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>13918500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>13121900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>13135200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>12986500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>12828500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>12629500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4537,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,55 +4552,61 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>7415000</v>
+        <v>6860900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>11046500</v>
+        <v>7641300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="3">
+        <v>11383700</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>13226200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>12391900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>12383200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12374400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>12278000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>12278400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4743,61 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>-3616000</v>
+        <v>-472600</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>746900</v>
+        <v>-3726400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>769700</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>429000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>515800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>869300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1591900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>777500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>1520000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,55 +4829,61 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>407400</v>
+        <v>423300</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>432800</v>
+        <v>419900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>446000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>468900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>412000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>249800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>277000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>278300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>275200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +5201,61 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>-551900</v>
+        <v>3476500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>2714700</v>
+        <v>-568700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>2797500</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>-173600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>2140900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>94200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1724900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>111600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>2248600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,55 +5287,61 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-166600</v>
+        <v>-137300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-265600</v>
+        <v>-171700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-273700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-207100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-204300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-246400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-130400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-187600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,55 +5473,61 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-41600</v>
+        <v>-194300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>2332500</v>
+        <v>-42900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>2403700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>83800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-34200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>272000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-238300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-413500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-790700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,55 +5559,61 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-172600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1030600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1062000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-987200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-980200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-811800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,55 +5807,61 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>240400</v>
+        <v>-602300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-3586500</v>
+        <v>247800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>-3696000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-426000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-364300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>681500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,55 +5869,61 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>9700</v>
+        <v>-150400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>-139200</v>
+        <v>10000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>16100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>21900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-101000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-58700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>23200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>71900</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,51 +5931,57 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-343300</v>
+        <v>2529500</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>1321400</v>
+        <v>-353800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>1361800</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-499700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>369300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-99000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-278200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>402900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>397000</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4099600</v>
+        <v>8363400</v>
       </c>
       <c r="E8" s="3">
-        <v>9085100</v>
+        <v>3950900</v>
       </c>
       <c r="F8" s="3">
-        <v>4201500</v>
+        <v>8755700</v>
       </c>
       <c r="G8" s="3">
-        <v>7900100</v>
+        <v>4049100</v>
       </c>
       <c r="H8" s="3">
-        <v>4137800</v>
+        <v>7613600</v>
       </c>
       <c r="I8" s="3">
-        <v>9716000</v>
+        <v>3987700</v>
       </c>
       <c r="J8" s="3">
+        <v>9363600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5576900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8744700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4927000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7335700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4628400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9686600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4595900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10635100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4759400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9978500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4831200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10340000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7334800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6799200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7777900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>7086400</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7068800</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6552600</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7495800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7317500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>5732800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>8039600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>8278100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>8194100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>13701700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1750300</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1101000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1938100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1277100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1686900</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1867800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1427300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1602900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1647000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2357000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1784400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>134000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>72700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>48400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>129200</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>70100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>18700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>17300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>36700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>25300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>-295800</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1204,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1199,20 +1222,23 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>127600</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>119600</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8971100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11444700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8774400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>7688000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8645700</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11435000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8456200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>7944600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>6829900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>8634900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>9091000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>9033700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>8352300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>114100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3544600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>941600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>675500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>109900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3821300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>907500</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>800200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>505700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>1051700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>1544000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>944800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>1987700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-195700</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>110200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>445900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-297200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>224700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>210900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>361800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>239100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>109800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>377800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3000900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1849500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>1079600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>364100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-3700800</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1782500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1298100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1169300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1536000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>2206400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1486100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>2400000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>214400</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>218600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>247900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>200700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>206600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>214500</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>242400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>187400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>168200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>171000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>167600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>167900</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-296000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3653000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1139600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>537900</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-285300</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4333000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1098300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>561600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>543000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>1094400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>1734900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>1016300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>1929600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>149000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>34000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>234500</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>143600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>226000</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>150100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>151900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>182300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>335900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>189800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>323700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-445100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3686900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>905100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>391800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-428900</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4347900</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>872300</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>411500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>391100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>912100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>1399000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>826500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>1606000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-491500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3716800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>836200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-473600</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4376700</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>805900</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>369700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>348800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>869300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>1323200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>777500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>1520000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,56 +1996,59 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>18800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-66500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>59300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>166900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>268700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>195700</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-110200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-445900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>188600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>297200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-429700</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-224700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-210900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-361800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-239100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-109800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-472600</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3726400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>769700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-455500</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4385900</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>741800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>429000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>515800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>869300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>1591900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>777500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>1520000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-472600</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3726400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>769700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-455500</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4385900</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>741800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>429000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>515800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>869300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>1591900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>777500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>1520000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>18253600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3909400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>15998800</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>4836100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17591700</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3767600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15418600</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>2984200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>3491100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>2871300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>3119100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>3725100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>2970900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
@@ -2605,448 +2695,472 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>237900</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>14990300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>12678700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>16061100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>13391500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>14446600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>12218900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>15478600</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>17299200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>16701500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>15659500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>15736500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>14605800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>16171500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>373700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>442100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>494600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>380600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>360200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>426000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>476600</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>576100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>484100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>524600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>1076600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>1113600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>527200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>351400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>512300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1095000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>364700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>338600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>493700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1055300</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>550600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>381200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>546200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>390400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>529400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>427600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>33969000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>17542400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>33649500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>18972900</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>32737100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>16906200</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>32429200</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>21410100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>21057900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>19601700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>19769200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>19395900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>20335200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1051100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1496800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1855600</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>1492800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1442500</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>1804800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1933000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2366400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2893900</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>3138300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>3133600</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3248200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3803700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3694100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>3090100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3130400</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3665700</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3560200</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>3858100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1430400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1332600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1277600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1213700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>1275600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>12422000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>13597900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>16386100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>11850800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11971500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>13104800</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15791900</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>20650400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>19871000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>19246300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>19527200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>19816900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>20320200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>522300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>290400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>460600</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>361100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>503400</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>279800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>443900</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>464300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>439800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>439900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>438900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>466900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>454700</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>51212700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>36731200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>56046000</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>35767700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>49355400</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>35399100</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>54013400</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>48187700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>44732100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>42987000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>43906700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>44031700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>45519200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>14525100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10393400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>14869700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>12254900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13998300</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10016500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14330400</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>13887500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>14096100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>12676500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>13139200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>12223200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>13939300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>12655300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>937500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>13211300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>1460300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>12196400</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>903500</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>12732200</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>2091600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1353900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>413100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1628000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>2433800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>1320100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5556100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>5405600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6513600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>5511200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5354600</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5209500</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6277400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>6517600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>6487500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6098600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6282500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6122800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6816900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>32736600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>16736500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>33904100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>19226400</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>31549400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>16129500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>32674500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>22496700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>21937500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>19188100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>20235700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>19563000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>22076200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8314100</v>
       </c>
       <c r="E61" s="3">
-        <v>9634100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>9284700</v>
       </c>
       <c r="G61" s="3">
-        <v>10148300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9780300</v>
       </c>
       <c r="I61" s="3">
-        <v>8483300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>8175600</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>9978600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7442400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>8446400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8152500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>8598700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7327800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1531000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1683700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1749400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>1677500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1475500</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1622600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1685900</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1930800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>2399700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>2432700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>2532700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>3021700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>3253300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>44351800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>29089900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>44662300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>29642700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>42743400</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>28034900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>43042600</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>34961600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>32340200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>30603800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>31532300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>31753700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>33240800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>7453000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>8241900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>12056700</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>6694400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>7182700</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>7943000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>11619500</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>13918500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>13121900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>13135200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>12986500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>12828500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>12629500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6860900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>7641300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>11383700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>6125100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6612100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>7364200</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10970900</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>13226200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>12391900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>12383200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>12374400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>12278000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>12278400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-472600</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3726400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>769700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-455500</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4385900</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>741800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>429000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>515800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>869300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>1591900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>777500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>1520000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>423300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>419900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>446000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>328100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>407900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>404600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>429900</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>468900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>412000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>249800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>277000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>278300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>275200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>3476500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-568700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2797500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3350400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-548100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2696100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>-173600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>2140900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>94200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1724900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>111600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>2248600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-137300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-171700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-273700</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-152200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-132300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-263800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-207100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-204300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-246400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-130400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-187600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-194300</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-42900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2403700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-384700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2316500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>83800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-34200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>272000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-238300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-413500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-790700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-172600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-166400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5571,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1062000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1023500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5583,11 +5817,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-987200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5595,11 +5829,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-980200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5841,16 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-811800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-602300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>247800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3696000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-879200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-580400</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>238800</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3561900</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-426000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-364300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>681500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-150400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-143500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-138300</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>16100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>21900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-101000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-58700</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>23200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>71900</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2529500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-353800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1361800</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-1350400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2437800</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-340900</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1312400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-499700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>369300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-99000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-278200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>402900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>397000</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8363400</v>
+        <v>4312800</v>
       </c>
       <c r="E8" s="3">
-        <v>3950900</v>
+        <v>8163000</v>
       </c>
       <c r="F8" s="3">
-        <v>8755700</v>
+        <v>3856200</v>
       </c>
       <c r="G8" s="3">
-        <v>4049100</v>
+        <v>8545800</v>
       </c>
       <c r="H8" s="3">
-        <v>7613600</v>
+        <v>3952000</v>
       </c>
       <c r="I8" s="3">
-        <v>3987700</v>
+        <v>7431100</v>
       </c>
       <c r="J8" s="3">
+        <v>3892100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9363600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5576900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8744700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4927000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7335700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4628400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9686600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4595900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10635100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4759400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9978500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4831200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10340000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>7086400</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7068800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6552600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6916500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6899400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6395500</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>7495800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7317500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>5732800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8039600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>8278100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>8194100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>13701700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1277100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1686900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1061000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1246400</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1646400</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1035600</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1867800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1427300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1602900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1647000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2357000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1784400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>129200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>70100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>126100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>68400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>46600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>18700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>17300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>36700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>25300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>-295800</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1230,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1225,20 +1248,23 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>127600</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>119600</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>7688000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8645700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11435000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7503700</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8438500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11160900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>8456200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>7944600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>6829900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>8634900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>9091000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>9033700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>8352300</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>675500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>109900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3821300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>659300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>107300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3729700</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>907500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>800200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>505700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1051700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>1544000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>944800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>1987700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>63100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-188600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-297200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-184100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-290000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>429700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>224700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>210900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>361800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>239100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>109800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1079600</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>364100</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3700800</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1782500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1298100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1169300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1536000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>2206400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1486100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>2400000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>200700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>206600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>214500</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>195900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>201700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>209400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>238900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>242400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>187400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>168200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>171000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>167600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>167900</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>537900</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-285300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-4333000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>525000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-278500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4229200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>1098300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>561600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>543000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1094400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>1734900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>1016300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>1929600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>146100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>143600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>142600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>140200</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>226000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>150100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>151900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>182300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>335900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>189800</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>323700</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>391800</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-428900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-4347900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>382400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-418600</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4243700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>872300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>411500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>391100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>912100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>1399000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>826500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>1606000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>344600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-473600</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-4376700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>336400</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-462300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4271800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>805900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>369700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>348800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>869300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>1323200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>777500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>1520000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,59 +2057,62 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-64100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>59300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>166900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>268700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-63100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>188600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>297200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>184100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>290000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-429700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-224700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-210900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-361800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-239100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-109800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>344600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-455500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-4385900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>336400</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-444600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4280800</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>741800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>429000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>515800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>869300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>1591900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>777500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>1520000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>344600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-455500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-4385900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>336400</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-444600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4280800</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>741800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>429000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>515800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>869300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>1591900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>777500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>1520000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>4836100</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>17591700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3767600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4720200</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>17170000</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3677300</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>15418600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>2984200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>3491100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2871300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>3119100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>3725100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>2970900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
@@ -2698,469 +2788,493 @@
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>237900</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>13391500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>14446600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>12218900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13070500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>14100300</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11926000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>15478600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>17299200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>16701500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>15659500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>15736500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>14605800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>16171500</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>380600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>360200</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>426000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>371500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>351500</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>415800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>476600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>576100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>484100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>524600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>1076600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>1113600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>527200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>364700</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>338600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>493700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>355900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>330500</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>481900</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1055300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>550600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>381200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>546200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>390400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>529400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>427600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>18972900</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>32737100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>16906200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18518100</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>31952400</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>16501000</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>32429200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>21410100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>21057900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>19601700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>19769200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>19395900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>20335200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1492800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1013000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1442500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1457000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>988700</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1407900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1788300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1804800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>1933000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2366400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2893900</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>3138300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>3133600</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>3090100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3130400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3665700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3016000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3055400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3577900</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>3560200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>3858100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1430400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1332600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1277600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>1213700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>1275600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>11850800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>11971500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>13104800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11566700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11684500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12790700</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>15791900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>20650400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>19871000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19246300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>19527200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>19816900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>20320200</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>361100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>503400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>279800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>352500</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>491300</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>273100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>443900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>464300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>439800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>439900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>438900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>466900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>454700</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>35767700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>49355400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>35399100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>34910400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>48172400</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>34550600</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>54013400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>48187700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>44732100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>42987000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>43906700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>44031700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>45519200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>12254900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>13998300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10016500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11961100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13662800</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9776400</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>14330400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>13887500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>14096100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>12676500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>13139200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>12223200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>13939300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1460300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>12196400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>903500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1425300</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11904000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>881900</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>12732200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>2091600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1353900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>413100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>1628000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>2433800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>1320100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>5511200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5354600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5209500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5379100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5226300</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5084700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>6277400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6517600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6487500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6098600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6282500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6122800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>6816900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>19226400</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>31549400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>16129500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18765600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>30793100</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>15742900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>32674500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>22496700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>21937500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>19188100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>20235700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>19563000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>22076200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8314100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>8114800</v>
       </c>
       <c r="F61" s="3">
-        <v>9284700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>9062100</v>
       </c>
       <c r="H61" s="3">
-        <v>9780300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>9545900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>8175600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>9978600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7442400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8446400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>8152500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>8598700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>7327800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>1677500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1475500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1622600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1637300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1440100</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1583700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1685900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1930800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>2399700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2432700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>2532700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>3021700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>3253300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>29642700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>42743400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>28034900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28932100</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>41718800</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>27362900</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>43042600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>34961600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>32340200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>30603800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>31532300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>31753700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>33240800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>6694400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>7182700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>7943000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6534000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7010500</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>7752600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>11619500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>13918500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>13121900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>13135200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>12986500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>12828500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>12629500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>6125100</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>6612100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>7364200</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5978200</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6453600</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7187700</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>10970900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>13226200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>12391900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12383200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>12374400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>12278000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>12278400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>344600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-455500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-4385900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>336400</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-444600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4280800</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>741800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>429000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>515800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>869300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>1591900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>777500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>1520000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>328100</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>407900</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>404600</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>429900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>468900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>412000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>249800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>277000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>278300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>275200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>53500</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>3350400</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>-548100</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>2696100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>-173600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>2140900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>94200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1724900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>111600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>2248600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-152200</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-132300</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-165400</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-263800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-207100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-204300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-246400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-130400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-187600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-384700</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-187200</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-41300</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>2316500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>83800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-34200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>272000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-238300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-413500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-790700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-166400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5808,11 +6042,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5820,11 +6054,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-987200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5832,11 +6066,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-980200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5844,13 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-811800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-879200</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-580400</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>238800</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-426000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-364300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>681500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-139900</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>-145000</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>9700</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-138300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>16100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>21900</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-58700</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>23200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>71900</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1350400</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>2437800</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-340900</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>1312400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-499700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>369300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-278200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>402900</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>397000</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4312800</v>
+        <v>4223600</v>
       </c>
       <c r="E8" s="3">
-        <v>8163000</v>
+        <v>7994300</v>
       </c>
       <c r="F8" s="3">
-        <v>3856200</v>
+        <v>3776500</v>
       </c>
       <c r="G8" s="3">
-        <v>8545800</v>
+        <v>8369200</v>
       </c>
       <c r="H8" s="3">
-        <v>3952000</v>
+        <v>3870400</v>
       </c>
       <c r="I8" s="3">
-        <v>7431100</v>
+        <v>7277600</v>
       </c>
       <c r="J8" s="3">
-        <v>3892100</v>
+        <v>3811700</v>
       </c>
       <c r="K8" s="3">
         <v>9363600</v>
@@ -838,19 +838,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>6916500</v>
+        <v>6773600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>6899400</v>
+        <v>6756800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>6395500</v>
+        <v>6263400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -906,19 +906,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1246400</v>
+        <v>1220700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>1646400</v>
+        <v>1612400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>1035600</v>
+        <v>1014200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -1136,19 +1136,19 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>126100</v>
+        <v>123400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>68400</v>
+        <v>67000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1295,19 +1295,19 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>7503700</v>
+        <v>7348600</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>8438500</v>
+        <v>8264100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>11160900</v>
+        <v>10930200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1363,19 +1363,19 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>659300</v>
+        <v>645700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>107300</v>
+        <v>105100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>-3729700</v>
+        <v>-3652700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1457,19 +1457,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>61600</v>
+        <v>60400</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-184100</v>
+        <v>-180300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-290000</v>
+        <v>-284100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1593,19 +1593,19 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>195900</v>
+        <v>191900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>201700</v>
+        <v>197500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>209400</v>
+        <v>205100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1661,19 +1661,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>525000</v>
+        <v>514100</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>-278500</v>
+        <v>-272700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>-4229200</v>
+        <v>-4141800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -1729,19 +1729,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>142600</v>
+        <v>139600</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>140200</v>
+        <v>137300</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1865,19 +1865,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>382400</v>
+        <v>374500</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>-418600</v>
+        <v>-410000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>-4243700</v>
+        <v>-4156000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -1933,19 +1933,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>336400</v>
+        <v>329400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>-462300</v>
+        <v>-452700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>-4271800</v>
+        <v>-4183500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -2075,13 +2075,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -2273,19 +2273,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-61600</v>
+        <v>-60400</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>184100</v>
+        <v>180300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>290000</v>
+        <v>284100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2341,19 +2341,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>336400</v>
+        <v>329400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>-444600</v>
+        <v>-435400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>-4280800</v>
+        <v>-4192300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2477,19 +2477,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>336400</v>
+        <v>329400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>-444600</v>
+        <v>-435400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>-4280800</v>
+        <v>-4192300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2666,23 +2666,23 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>4622700</v>
       </c>
       <c r="E41" s="3">
-        <v>4720200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
+        <v>16815100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3601300</v>
       </c>
       <c r="G41" s="3">
-        <v>17170000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3677300</v>
+        <v>14738000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2833000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2802,23 +2802,23 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>12800300</v>
       </c>
       <c r="E43" s="3">
-        <v>13070500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
+        <v>13808900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11679500</v>
       </c>
       <c r="G43" s="3">
-        <v>14100300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>11926000</v>
+        <v>14795400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>16422400</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -2870,23 +2870,23 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>363800</v>
       </c>
       <c r="E44" s="3">
-        <v>371500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
+        <v>344300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>407200</v>
       </c>
       <c r="G44" s="3">
-        <v>351500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>415800</v>
+        <v>455600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>546900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2938,23 +2938,23 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>348600</v>
       </c>
       <c r="E45" s="3">
-        <v>355900</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+        <v>323700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>471900</v>
       </c>
       <c r="G45" s="3">
-        <v>330500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>481900</v>
+        <v>1008700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>522700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3006,23 +3006,23 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
+      <c r="D46" s="3">
+        <v>18135400</v>
       </c>
       <c r="E46" s="3">
-        <v>18518100</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
+        <v>31292000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>16160000</v>
       </c>
       <c r="G46" s="3">
-        <v>31952400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>16501000</v>
+        <v>30997700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>20324900</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3074,23 +3074,23 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>1426900</v>
       </c>
       <c r="E47" s="3">
-        <v>1457000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>968300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1378800</v>
       </c>
       <c r="G47" s="3">
-        <v>988700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1407900</v>
+        <v>1709400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1713300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3142,23 +3142,23 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>2953700</v>
       </c>
       <c r="E48" s="3">
-        <v>3016000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+        <v>2992300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3503900</v>
       </c>
       <c r="G48" s="3">
-        <v>3055400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3577900</v>
+        <v>3403000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3662600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3210,23 +3210,23 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>11327700</v>
       </c>
       <c r="E49" s="3">
-        <v>11566700</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+        <v>11443000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>12526300</v>
       </c>
       <c r="G49" s="3">
-        <v>11684500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>12790700</v>
+        <v>15094800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>19603800</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3414,23 +3414,23 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>345200</v>
       </c>
       <c r="E52" s="3">
-        <v>352500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>481200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>267500</v>
       </c>
       <c r="G52" s="3">
-        <v>491300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>273100</v>
+        <v>424300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>440700</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3550,23 +3550,23 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>34188900</v>
       </c>
       <c r="E54" s="3">
-        <v>34910400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
+        <v>47176800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>33836500</v>
       </c>
       <c r="G54" s="3">
-        <v>48172400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>34550600</v>
+        <v>51629200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>45745300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3670,23 +3670,23 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>11713900</v>
       </c>
       <c r="E57" s="3">
-        <v>11961100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+        <v>13380400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9574300</v>
       </c>
       <c r="G57" s="3">
-        <v>13662800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>9776400</v>
+        <v>13697900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>13183600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3738,23 +3738,23 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>1395900</v>
       </c>
       <c r="E58" s="3">
-        <v>1425300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>11658000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>863600</v>
       </c>
       <c r="G58" s="3">
-        <v>11904000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>881900</v>
+        <v>12170200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1985600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3806,23 +3806,23 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>5267900</v>
       </c>
       <c r="E59" s="3">
-        <v>5379100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>5118300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4979600</v>
       </c>
       <c r="G59" s="3">
-        <v>5226300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5084700</v>
+        <v>6000300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6187200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3874,23 +3874,23 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
+      <c r="D60" s="3">
+        <v>18377800</v>
       </c>
       <c r="E60" s="3">
-        <v>18765600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
+        <v>30156700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>15417600</v>
       </c>
       <c r="G60" s="3">
-        <v>30793100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>15742900</v>
+        <v>31232200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>21356500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -3943,22 +3943,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7947100</v>
       </c>
       <c r="E61" s="3">
-        <v>8114800</v>
+        <v>8874800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>9348600</v>
       </c>
       <c r="G61" s="3">
-        <v>9062100</v>
+        <v>7814800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9472800</v>
       </c>
       <c r="I61" s="3">
-        <v>9545900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4010,23 +4010,23 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>1603400</v>
       </c>
       <c r="E62" s="3">
-        <v>1637300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+        <v>1410400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1551000</v>
       </c>
       <c r="G62" s="3">
-        <v>1440100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1583700</v>
+        <v>1611500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1833000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4282,23 +4282,23 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>28334200</v>
       </c>
       <c r="E66" s="3">
-        <v>28932100</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+        <v>40856600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>26797400</v>
       </c>
       <c r="G66" s="3">
-        <v>41718800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>27362900</v>
+        <v>41142600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>33189500</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4648,23 +4648,23 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>6398900</v>
       </c>
       <c r="E72" s="3">
-        <v>6534000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+        <v>6865600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>7592400</v>
       </c>
       <c r="G72" s="3">
-        <v>7010500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>7752600</v>
+        <v>11106600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>13213100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4920,23 +4920,23 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>5854700</v>
       </c>
       <c r="E76" s="3">
-        <v>5978200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
+        <v>6320200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>7039100</v>
       </c>
       <c r="G76" s="3">
-        <v>6453600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>7187700</v>
+        <v>10486600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>12555800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5133,19 +5133,19 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>336400</v>
+        <v>329400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>-444600</v>
+        <v>-435400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>-4280800</v>
+        <v>-4192300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4223600</v>
+        <v>8135000</v>
       </c>
       <c r="E8" s="3">
-        <v>7994300</v>
+        <v>3952500</v>
       </c>
       <c r="F8" s="3">
-        <v>3776500</v>
+        <v>7481000</v>
       </c>
       <c r="G8" s="3">
-        <v>8369200</v>
+        <v>3534100</v>
       </c>
       <c r="H8" s="3">
-        <v>3870400</v>
+        <v>7831900</v>
       </c>
       <c r="I8" s="3">
-        <v>7277600</v>
+        <v>3621900</v>
       </c>
       <c r="J8" s="3">
+        <v>6810300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3811700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9363600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5576900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8744700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4927000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7335700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4628400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9686600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4595900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10635100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4759400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9978500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4831200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10340000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6773600</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6756800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6263400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>6589200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6338700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6323000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5861300</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7495800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7317500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>5732800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>8039600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>8278100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>8194100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>13701700</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1220700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1612400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1014200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1545900</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1142300</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1508900</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>949100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1867800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1427300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1602900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1647000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2357000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1784400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>123400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>67000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>115500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>46600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>18700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>17300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>36700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>25300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>-295800</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1255,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1251,20 +1273,23 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>127600</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>119600</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7348600</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8264100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10930200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>7316000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6876800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7733600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10228500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>8456200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>7944600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>6829900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>8634900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>9091000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>9033700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>8352300</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>645700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>105100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3652700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>604200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>98300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3418200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>907500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>800200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>505700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>1051700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>1544000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>944800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>1987700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>60400</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-180300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-284100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>56500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-168700</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-265800</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>429700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>224700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>210900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>361800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>239100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>109800</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1542,254 +1578,266 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1782500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1298100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1169300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1536000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>2206400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1486100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>2400000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>179600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>184800</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>191900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>197500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>205100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>238900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>242400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>187400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>168200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>171000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>167600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>167900</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>514100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-272700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-4141800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>678800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>481100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-255200</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3875900</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>1098300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>561600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>543000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>1094400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>1734900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>1016300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>1929600</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>139600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>137300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>130700</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>128500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>226000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>150100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>151900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>182300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>335900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>189800</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>323700</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>374500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-410000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-4156000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>528700</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>350500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-383700</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3889200</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>872300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>411500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>391100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>912100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>1399000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>826500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>1606000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>329400</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-452700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4183500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>308300</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-423700</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3914900</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>805900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>369700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>348800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>869300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>1323200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>777500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>1520000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,62 +2117,65 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>17300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-64100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>59300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>166900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>268700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-60400</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>180300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>284100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>168700</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>265800</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-429700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-224700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-210900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-361800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-239100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-109800</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>329400</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-435400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4192300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>308300</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-407400</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3923200</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>741800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>429000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>515800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>869300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>1591900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>777500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>1520000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>329400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-435400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4192300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>308300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-407400</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3923200</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>741800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>429000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>515800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>869300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>1591900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>777500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>1520000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4622700</v>
+        <v>4736700</v>
       </c>
       <c r="E41" s="3">
-        <v>16815100</v>
+        <v>4325900</v>
       </c>
       <c r="F41" s="3">
-        <v>3601300</v>
+        <v>15735600</v>
       </c>
       <c r="G41" s="3">
-        <v>14738000</v>
+        <v>3370100</v>
       </c>
       <c r="H41" s="3">
-        <v>2833000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>13791800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2651100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>15418600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>2984200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>3491100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>2871300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>3119100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>3725100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>2970900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2779,8 +2868,8 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
@@ -2791,490 +2880,514 @@
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>237900</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12800300</v>
+        <v>13395600</v>
       </c>
       <c r="E43" s="3">
-        <v>13808900</v>
+        <v>11978600</v>
       </c>
       <c r="F43" s="3">
-        <v>11679500</v>
+        <v>12894600</v>
       </c>
       <c r="G43" s="3">
-        <v>14795400</v>
+        <v>10929700</v>
       </c>
       <c r="H43" s="3">
-        <v>16422400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>28239700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>15368100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>15478600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>17299200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>16701500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>15659500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>15736500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>14605800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>16171500</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>363800</v>
+        <v>309900</v>
       </c>
       <c r="E44" s="3">
-        <v>344300</v>
+        <v>340500</v>
       </c>
       <c r="F44" s="3">
-        <v>407200</v>
+        <v>322200</v>
       </c>
       <c r="G44" s="3">
-        <v>455600</v>
+        <v>381100</v>
       </c>
       <c r="H44" s="3">
-        <v>546900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>426400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>511700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>476600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>576100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>484100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>524600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>1076600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>1113600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>527200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>348600</v>
+        <v>265700</v>
       </c>
       <c r="E45" s="3">
-        <v>323700</v>
+        <v>326200</v>
       </c>
       <c r="F45" s="3">
-        <v>471900</v>
+        <v>302900</v>
       </c>
       <c r="G45" s="3">
-        <v>1008700</v>
+        <v>441600</v>
       </c>
       <c r="H45" s="3">
-        <v>522700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>944000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>489200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1055300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>550600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>381200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>546200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>390400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>529400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>427600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18135400</v>
+        <v>18707900</v>
       </c>
       <c r="E46" s="3">
-        <v>31292000</v>
+        <v>16971100</v>
       </c>
       <c r="F46" s="3">
-        <v>16160000</v>
+        <v>29255300</v>
       </c>
       <c r="G46" s="3">
-        <v>30997700</v>
+        <v>15122500</v>
       </c>
       <c r="H46" s="3">
-        <v>20324900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>28979800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>19020100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>32429200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>21410100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>21057900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>19601700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>19769200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>19395900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>20335200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1426900</v>
+        <v>948800</v>
       </c>
       <c r="E47" s="3">
-        <v>968300</v>
+        <v>1335300</v>
       </c>
       <c r="F47" s="3">
-        <v>1378800</v>
+        <v>906100</v>
       </c>
       <c r="G47" s="3">
-        <v>1709400</v>
+        <v>1290300</v>
       </c>
       <c r="H47" s="3">
-        <v>1713300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>1767500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1603300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>1788300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1804800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1933000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2366400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2893900</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>3138300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>3133600</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2953700</v>
+        <v>2795400</v>
       </c>
       <c r="E48" s="3">
-        <v>2992300</v>
+        <v>2764000</v>
       </c>
       <c r="F48" s="3">
-        <v>3503900</v>
+        <v>2800200</v>
       </c>
       <c r="G48" s="3">
-        <v>3403000</v>
+        <v>3279000</v>
       </c>
       <c r="H48" s="3">
-        <v>3662600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>3184500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3427400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>3560200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>3858100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1430400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1332600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1277600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>1213700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>1275600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11327700</v>
+        <v>10944700</v>
       </c>
       <c r="E49" s="3">
-        <v>11443000</v>
+        <v>10600400</v>
       </c>
       <c r="F49" s="3">
-        <v>12526300</v>
+        <v>10708400</v>
       </c>
       <c r="G49" s="3">
-        <v>15094800</v>
+        <v>11722100</v>
       </c>
       <c r="H49" s="3">
-        <v>19603800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>14125700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>18345200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>15791900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>20650400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>19871000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>19246300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>19527200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>19816900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>20320200</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>345200</v>
+        <v>602800</v>
       </c>
       <c r="E52" s="3">
-        <v>481200</v>
+        <v>323000</v>
       </c>
       <c r="F52" s="3">
-        <v>267500</v>
+        <v>450300</v>
       </c>
       <c r="G52" s="3">
-        <v>424300</v>
+        <v>250300</v>
       </c>
       <c r="H52" s="3">
-        <v>440700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>397100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>412400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>443900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>464300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>439800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>439900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>438900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>466900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>454700</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34188900</v>
+        <v>33999600</v>
       </c>
       <c r="E54" s="3">
-        <v>47176800</v>
+        <v>31994000</v>
       </c>
       <c r="F54" s="3">
-        <v>33836500</v>
+        <v>44120200</v>
       </c>
       <c r="G54" s="3">
-        <v>51629200</v>
+        <v>31664200</v>
       </c>
       <c r="H54" s="3">
-        <v>45745300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>48286800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>42808500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>54013400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>48187700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>44732100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>42987000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>43906700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>44031700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>45519200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11713900</v>
+        <v>13031600</v>
       </c>
       <c r="E57" s="3">
-        <v>13380400</v>
+        <v>10961900</v>
       </c>
       <c r="F57" s="3">
-        <v>9574300</v>
+        <v>12521400</v>
       </c>
       <c r="G57" s="3">
-        <v>13697900</v>
+        <v>8959700</v>
       </c>
       <c r="H57" s="3">
-        <v>13183600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>30126500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>12337200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>14330400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>13887500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>14096100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>12676500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>13139200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>12223200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>13939300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1395900</v>
+        <v>1033100</v>
       </c>
       <c r="E58" s="3">
-        <v>11658000</v>
+        <v>1306300</v>
       </c>
       <c r="F58" s="3">
-        <v>863600</v>
+        <v>10909600</v>
       </c>
       <c r="G58" s="3">
-        <v>12170200</v>
+        <v>808200</v>
       </c>
       <c r="H58" s="3">
-        <v>1985600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>21834000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1858200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>12732200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>2091600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>1353900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>413100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>1628000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>2433800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>1320100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5267900</v>
+        <v>6045800</v>
       </c>
       <c r="E59" s="3">
-        <v>5118300</v>
+        <v>4929700</v>
       </c>
       <c r="F59" s="3">
-        <v>4979600</v>
+        <v>4903800</v>
       </c>
       <c r="G59" s="3">
-        <v>6000300</v>
+        <v>4659900</v>
       </c>
       <c r="H59" s="3">
-        <v>6187200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>5731800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5790000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>6277400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>6517600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6487500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6098600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6282500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6122800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6816900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18377800</v>
+        <v>20110500</v>
       </c>
       <c r="E60" s="3">
-        <v>30156700</v>
+        <v>17197900</v>
       </c>
       <c r="F60" s="3">
-        <v>15417600</v>
+        <v>28334700</v>
       </c>
       <c r="G60" s="3">
-        <v>31232200</v>
+        <v>14427800</v>
       </c>
       <c r="H60" s="3">
-        <v>21356500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>29343800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>19985400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>32674500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>22496700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>21937500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>19188100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>20235700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>19563000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>22076200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7947100</v>
+        <v>7293700</v>
       </c>
       <c r="E61" s="3">
-        <v>8874800</v>
+        <v>7436900</v>
       </c>
       <c r="F61" s="3">
-        <v>9348600</v>
+        <v>8305100</v>
       </c>
       <c r="G61" s="3">
-        <v>7814800</v>
+        <v>8748400</v>
       </c>
       <c r="H61" s="3">
-        <v>9472800</v>
+        <v>7313100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>8864600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>8175600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>9978600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7442400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8446400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>8152500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>8598700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>7327800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1603400</v>
+        <v>1631600</v>
       </c>
       <c r="E62" s="3">
-        <v>1410400</v>
+        <v>1500500</v>
       </c>
       <c r="F62" s="3">
-        <v>1551000</v>
+        <v>1319800</v>
       </c>
       <c r="G62" s="3">
-        <v>1611500</v>
+        <v>1451400</v>
       </c>
       <c r="H62" s="3">
-        <v>1833000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>2056500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1715300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1685900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1930800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>2399700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>2432700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>2532700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>3021700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>3253300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28334200</v>
+        <v>29587900</v>
       </c>
       <c r="E66" s="3">
-        <v>40856600</v>
+        <v>26515100</v>
       </c>
       <c r="F66" s="3">
-        <v>26797400</v>
+        <v>38347700</v>
       </c>
       <c r="G66" s="3">
-        <v>41142600</v>
+        <v>25077000</v>
       </c>
       <c r="H66" s="3">
-        <v>33189500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>38618000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>31058800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>43042600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>34961600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>32340200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>30603800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>31532300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>31753700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>33240800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6398900</v>
+        <v>4917900</v>
       </c>
       <c r="E72" s="3">
-        <v>6865600</v>
+        <v>5988100</v>
       </c>
       <c r="F72" s="3">
-        <v>7592400</v>
+        <v>6283000</v>
       </c>
       <c r="G72" s="3">
-        <v>11106600</v>
+        <v>7104900</v>
       </c>
       <c r="H72" s="3">
-        <v>13213100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>10249000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>12364800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>11619500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>13918500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>13121900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>13135200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>12986500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>12828500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>12629500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5854700</v>
+        <v>4411600</v>
       </c>
       <c r="E76" s="3">
-        <v>6320200</v>
+        <v>5478800</v>
       </c>
       <c r="F76" s="3">
-        <v>7039100</v>
+        <v>5772600</v>
       </c>
       <c r="G76" s="3">
-        <v>10486600</v>
+        <v>6587200</v>
       </c>
       <c r="H76" s="3">
-        <v>12555800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>9668800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>11749700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>10970900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>13226200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>12391900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>12383200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>12374400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>12278000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>12278400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>329400</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-435400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4192300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>308300</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-407400</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3923200</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>741800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>429000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>515800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>869300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>1591900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>777500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>1520000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>429900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>468900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>412000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>249800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>277000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>278300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>275200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>2696100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-173600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>2140900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>94200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1724900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>111600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>2248600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-263800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-207100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-204300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-246400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-130400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-187600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>2316500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>83800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-34200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>272000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-238300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-413500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-790700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6045,11 +6278,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6057,11 +6290,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-987200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6069,11 +6302,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-980200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6081,13 +6314,16 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-811800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-426000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-364300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>681500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-138300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>16100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>21900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-101000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-58700</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>23200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>71900</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>1312400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-499700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>369300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-99000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-278200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>402900</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>397000</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8135000</v>
+        <v>7990800</v>
       </c>
       <c r="E8" s="3">
-        <v>3952500</v>
+        <v>7888300</v>
       </c>
       <c r="F8" s="3">
-        <v>7481000</v>
+        <v>3832600</v>
       </c>
       <c r="G8" s="3">
-        <v>3534100</v>
+        <v>7254100</v>
       </c>
       <c r="H8" s="3">
-        <v>7831900</v>
+        <v>3426900</v>
       </c>
       <c r="I8" s="3">
-        <v>3621900</v>
+        <v>7594300</v>
       </c>
       <c r="J8" s="3">
+        <v>3512000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6810300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3811700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9363600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5576900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8744700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4927000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7335700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4628400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9686600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4595900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10635100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4759400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9978500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4831200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10340000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6589200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6338700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6323000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+        <v>6752100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6389300</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6146500</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6131200</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>5861300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7495800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>7317500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>5732800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>8039600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>8278100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>8194100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>13701700</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1545900</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1142300</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1508900</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+        <v>1238700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1107700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1463100</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>949100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1867800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1427300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1602900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1647000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2357000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1784400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>90300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>115500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>62700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>46600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>18700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>17300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>36700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>25300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-295800</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,8 +1281,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1276,20 +1299,23 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>127600</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>119600</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7316000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6876800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7733600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+        <v>7443600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7094100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6668200</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7499000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>10228500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>8456200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>7944600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>6829900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>8634900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>9091000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>9033700</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>8352300</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>819000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>604200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>98300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+        <v>547200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>794200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>585900</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>95300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3418200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>907500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>800200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>505700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>1051700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>1544000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>944800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1987700</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,84 +1514,88 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>56500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-168700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>54800</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-163600</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-265800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>429700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>224700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>210900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>361800</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>239100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>109800</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>968100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1581,263 +1618,275 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1782500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1298100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1169300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1536000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>2206400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1486100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2400000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>161300</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>179600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>184800</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>156400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>174100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>179200</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>191900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>238900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>242400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>187400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>168200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>171000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>167600</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>167900</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>678800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>481100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-255200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+        <v>495200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>658200</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>466500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-247500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3875900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>1098300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>561600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>543000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>1094400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>1734900</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>1016300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1929600</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>150000</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>130700</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>128500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>145500</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>126700</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>124600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>13300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>226000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>150100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>151900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>182300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>335900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>189800</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>323700</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>528700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>350500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-383700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+        <v>356200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>512700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>339800</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-372000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3889200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>872300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>411500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>391100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>912100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>1399000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>826500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1606000</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>469700</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>308300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-423700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>455400</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>298900</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-410800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3914900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>805900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>369700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>348800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>869300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>1323200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>777500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1520000</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,65 +2178,68 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-8300</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-64100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>59300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>166900</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>268700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>168700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>163600</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>265800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-429700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-224700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-210900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-361800</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-239100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-109800</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>469700</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>308300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-407400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>455400</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>298900</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-395100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3923200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>741800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>429000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>515800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>869300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>1591900</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>777500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1520000</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>469700</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>308300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-407400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>455400</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>298900</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-395100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3923200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>741800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>429000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>515800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>869300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>1591900</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>777500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1520000</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,28 +2833,29 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4736700</v>
+        <v>2099600</v>
       </c>
       <c r="E41" s="3">
-        <v>4325900</v>
+        <v>4593100</v>
       </c>
       <c r="F41" s="3">
-        <v>15735600</v>
+        <v>4194700</v>
       </c>
       <c r="G41" s="3">
-        <v>3370100</v>
+        <v>15258300</v>
       </c>
       <c r="H41" s="3">
-        <v>13791800</v>
+        <v>3267900</v>
       </c>
       <c r="I41" s="3">
-        <v>2651100</v>
+        <v>13373500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2776,50 +2863,53 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>15418600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>2984200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3491100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>2871300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>3119100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>3725100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>2970900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2871,8 +2961,8 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
@@ -2883,34 +2973,37 @@
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>237900</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13395600</v>
+        <v>13230300</v>
       </c>
       <c r="E43" s="3">
-        <v>11978600</v>
+        <v>12989300</v>
       </c>
       <c r="F43" s="3">
-        <v>12894600</v>
+        <v>11615200</v>
       </c>
       <c r="G43" s="3">
-        <v>10929700</v>
+        <v>12503500</v>
       </c>
       <c r="H43" s="3">
-        <v>28239700</v>
+        <v>10598200</v>
       </c>
       <c r="I43" s="3">
-        <v>15368100</v>
+        <v>27383200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -2918,70 +3011,73 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>15478600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>17299200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>16701500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>15659500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>15736500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>14605800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>16171500</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>309900</v>
+        <v>406700</v>
       </c>
       <c r="E44" s="3">
-        <v>340500</v>
+        <v>300500</v>
       </c>
       <c r="F44" s="3">
-        <v>322200</v>
+        <v>330100</v>
       </c>
       <c r="G44" s="3">
-        <v>381100</v>
+        <v>312400</v>
       </c>
       <c r="H44" s="3">
-        <v>426400</v>
+        <v>369500</v>
       </c>
       <c r="I44" s="3">
-        <v>511700</v>
+        <v>413400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2989,70 +3085,73 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>476600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>576100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>484100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>524600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>1076600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>1113600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>527200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>265700</v>
+        <v>351600</v>
       </c>
       <c r="E45" s="3">
-        <v>326200</v>
+        <v>257600</v>
       </c>
       <c r="F45" s="3">
-        <v>302900</v>
+        <v>316300</v>
       </c>
       <c r="G45" s="3">
-        <v>441600</v>
+        <v>293700</v>
       </c>
       <c r="H45" s="3">
-        <v>944000</v>
+        <v>428200</v>
       </c>
       <c r="I45" s="3">
-        <v>489200</v>
+        <v>915300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3060,70 +3159,73 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1055300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>550600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>381200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>546200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>390400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>529400</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>427600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18707900</v>
+        <v>16088100</v>
       </c>
       <c r="E46" s="3">
-        <v>16971100</v>
+        <v>18140500</v>
       </c>
       <c r="F46" s="3">
-        <v>29255300</v>
+        <v>16456400</v>
       </c>
       <c r="G46" s="3">
-        <v>15122500</v>
+        <v>28368000</v>
       </c>
       <c r="H46" s="3">
-        <v>28979800</v>
+        <v>14663800</v>
       </c>
       <c r="I46" s="3">
-        <v>19020100</v>
+        <v>28100900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3131,70 +3233,73 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>32429200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>21410100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>21057900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>19601700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>19769200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>19395900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>20335200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>948800</v>
+        <v>916700</v>
       </c>
       <c r="E47" s="3">
-        <v>1335300</v>
+        <v>920100</v>
       </c>
       <c r="F47" s="3">
-        <v>906100</v>
+        <v>1294800</v>
       </c>
       <c r="G47" s="3">
-        <v>1290300</v>
+        <v>878700</v>
       </c>
       <c r="H47" s="3">
-        <v>1767500</v>
+        <v>1251200</v>
       </c>
       <c r="I47" s="3">
-        <v>1603300</v>
+        <v>1713900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3202,70 +3307,73 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1788300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>1804800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1933000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2366400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2893900</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>3138300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3133600</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2795400</v>
+        <v>2868300</v>
       </c>
       <c r="E48" s="3">
-        <v>2764000</v>
+        <v>2710600</v>
       </c>
       <c r="F48" s="3">
-        <v>2800200</v>
+        <v>2680200</v>
       </c>
       <c r="G48" s="3">
-        <v>3279000</v>
+        <v>2715200</v>
       </c>
       <c r="H48" s="3">
-        <v>3184500</v>
+        <v>3179500</v>
       </c>
       <c r="I48" s="3">
-        <v>3427400</v>
+        <v>3088000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3273,70 +3381,73 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>3560200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>3858100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1430400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1332600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>1277600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>1213700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1275600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10944700</v>
+        <v>11482100</v>
       </c>
       <c r="E49" s="3">
-        <v>10600400</v>
+        <v>10612700</v>
       </c>
       <c r="F49" s="3">
-        <v>10708400</v>
+        <v>10278900</v>
       </c>
       <c r="G49" s="3">
-        <v>11722100</v>
+        <v>10383600</v>
       </c>
       <c r="H49" s="3">
-        <v>14125700</v>
+        <v>11366600</v>
       </c>
       <c r="I49" s="3">
-        <v>18345200</v>
+        <v>13697300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3344,50 +3455,53 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>15791900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>20650400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19871000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>19246300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>19527200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>19816900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>20320200</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,28 +3645,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>602800</v>
+        <v>601600</v>
       </c>
       <c r="E52" s="3">
-        <v>323000</v>
+        <v>584500</v>
       </c>
       <c r="F52" s="3">
-        <v>450300</v>
+        <v>313200</v>
       </c>
       <c r="G52" s="3">
-        <v>250300</v>
+        <v>436600</v>
       </c>
       <c r="H52" s="3">
-        <v>397100</v>
+        <v>242700</v>
       </c>
       <c r="I52" s="3">
-        <v>412400</v>
+        <v>385000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3557,50 +3677,53 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>443900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>464300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>439800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>439900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>438900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>466900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>454700</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,28 +3793,31 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33999600</v>
+        <v>31956900</v>
       </c>
       <c r="E54" s="3">
-        <v>31994000</v>
+        <v>32968400</v>
       </c>
       <c r="F54" s="3">
-        <v>44120200</v>
+        <v>31023600</v>
       </c>
       <c r="G54" s="3">
-        <v>31664200</v>
+        <v>42782100</v>
       </c>
       <c r="H54" s="3">
-        <v>48286800</v>
+        <v>30703800</v>
       </c>
       <c r="I54" s="3">
-        <v>42808500</v>
+        <v>46822300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3699,50 +3825,53 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>54013400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>48187700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>44732100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>42987000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>43906700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>44031700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>45519200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,28 +3925,29 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13031600</v>
+        <v>11491200</v>
       </c>
       <c r="E57" s="3">
-        <v>10961900</v>
+        <v>12636300</v>
       </c>
       <c r="F57" s="3">
-        <v>12521400</v>
+        <v>10629400</v>
       </c>
       <c r="G57" s="3">
-        <v>8959700</v>
+        <v>12141600</v>
       </c>
       <c r="H57" s="3">
-        <v>30126500</v>
+        <v>8687900</v>
       </c>
       <c r="I57" s="3">
-        <v>12337200</v>
+        <v>29212800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3824,70 +3955,73 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>14330400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>13887500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>14096100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>12676500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>13139200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>12223200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>13939300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1033100</v>
+        <v>689300</v>
       </c>
       <c r="E58" s="3">
-        <v>1306300</v>
+        <v>1001800</v>
       </c>
       <c r="F58" s="3">
-        <v>10909600</v>
+        <v>1266600</v>
       </c>
       <c r="G58" s="3">
-        <v>808200</v>
+        <v>10578700</v>
       </c>
       <c r="H58" s="3">
-        <v>21834000</v>
+        <v>783700</v>
       </c>
       <c r="I58" s="3">
-        <v>1858200</v>
+        <v>21171800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3895,70 +4029,73 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>12732200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>2091600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1353900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>413100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>1628000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>2433800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1320100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6045800</v>
+        <v>5424400</v>
       </c>
       <c r="E59" s="3">
-        <v>4929700</v>
+        <v>5862500</v>
       </c>
       <c r="F59" s="3">
-        <v>4903800</v>
+        <v>4780200</v>
       </c>
       <c r="G59" s="3">
-        <v>4659900</v>
+        <v>4755000</v>
       </c>
       <c r="H59" s="3">
-        <v>5731800</v>
+        <v>4518600</v>
       </c>
       <c r="I59" s="3">
-        <v>5790000</v>
+        <v>5558000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3966,70 +4103,73 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6277400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6517600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6487500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6098600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6282500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>6122800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>6816900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20110500</v>
+        <v>17604900</v>
       </c>
       <c r="E60" s="3">
-        <v>17197900</v>
+        <v>19500600</v>
       </c>
       <c r="F60" s="3">
-        <v>28334700</v>
+        <v>16676300</v>
       </c>
       <c r="G60" s="3">
-        <v>14427800</v>
+        <v>27475300</v>
       </c>
       <c r="H60" s="3">
-        <v>29343800</v>
+        <v>13990200</v>
       </c>
       <c r="I60" s="3">
-        <v>19985400</v>
+        <v>28453800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4037,70 +4177,73 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>32674500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>22496700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>21937500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>19188100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>20235700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>19563000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>22076200</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7293700</v>
+        <v>7638600</v>
       </c>
       <c r="E61" s="3">
-        <v>7436900</v>
+        <v>7072400</v>
       </c>
       <c r="F61" s="3">
-        <v>8305100</v>
+        <v>7211300</v>
       </c>
       <c r="G61" s="3">
-        <v>8748400</v>
+        <v>8053200</v>
       </c>
       <c r="H61" s="3">
-        <v>7313100</v>
+        <v>8483000</v>
       </c>
       <c r="I61" s="3">
-        <v>8864600</v>
+        <v>7091200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4109,69 +4252,72 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>8175600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>9978600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7442400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>8446400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>8152500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>8598700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>7327800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1631600</v>
+        <v>1662000</v>
       </c>
       <c r="E62" s="3">
-        <v>1500500</v>
+        <v>1582100</v>
       </c>
       <c r="F62" s="3">
-        <v>1319800</v>
+        <v>1455000</v>
       </c>
       <c r="G62" s="3">
-        <v>1451400</v>
+        <v>1279800</v>
       </c>
       <c r="H62" s="3">
-        <v>2056500</v>
+        <v>1407400</v>
       </c>
       <c r="I62" s="3">
-        <v>1715300</v>
+        <v>1994100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4179,50 +4325,53 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1685900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1930800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2399700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>2432700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>2532700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>3021700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>3253300</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,28 +4589,31 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29587900</v>
+        <v>27471400</v>
       </c>
       <c r="E66" s="3">
-        <v>26515100</v>
+        <v>28690500</v>
       </c>
       <c r="F66" s="3">
-        <v>38347700</v>
+        <v>25710900</v>
       </c>
       <c r="G66" s="3">
-        <v>25077000</v>
+        <v>37184600</v>
       </c>
       <c r="H66" s="3">
-        <v>38618000</v>
+        <v>24316400</v>
       </c>
       <c r="I66" s="3">
-        <v>31058800</v>
+        <v>37446700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4463,50 +4621,53 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>43042600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>34961600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>32340200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>30603800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>31532300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>31753700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>33240800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,28 +4987,31 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4917900</v>
+        <v>4948300</v>
       </c>
       <c r="E72" s="3">
-        <v>5988100</v>
+        <v>4768700</v>
       </c>
       <c r="F72" s="3">
-        <v>6283000</v>
+        <v>5806500</v>
       </c>
       <c r="G72" s="3">
-        <v>7104900</v>
+        <v>6092400</v>
       </c>
       <c r="H72" s="3">
-        <v>10249000</v>
+        <v>6889400</v>
       </c>
       <c r="I72" s="3">
-        <v>12364800</v>
+        <v>9938100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4845,50 +5019,53 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>11619500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>13918500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>13121900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>13135200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>12986500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>12828500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>12629500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,28 +5283,31 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4411600</v>
+        <v>4485400</v>
       </c>
       <c r="E76" s="3">
-        <v>5478800</v>
+        <v>4277800</v>
       </c>
       <c r="F76" s="3">
-        <v>5772600</v>
+        <v>5312600</v>
       </c>
       <c r="G76" s="3">
-        <v>6587200</v>
+        <v>5597500</v>
       </c>
       <c r="H76" s="3">
-        <v>9668800</v>
+        <v>6387400</v>
       </c>
       <c r="I76" s="3">
-        <v>11749700</v>
+        <v>9375500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5129,50 +5315,53 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>10970900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>13226200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12391900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>12383200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>12374400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>12278000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>12278400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>469700</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>308300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-407400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>455400</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>298900</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-395100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3923200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>741800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>429000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>515800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>869300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>1591900</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>777500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1520000</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+        <v>285400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>429900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>468900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>412000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>249800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>277000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>278300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>275200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+        <v>-1314000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>2696100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>-173600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2140900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>94200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1724900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>111600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2248600</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-263800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-207100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-204300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-246400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-130400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-187600</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>2316500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>83800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>272000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-238300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-413500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-790700</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6281,11 +6515,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6293,11 +6527,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-987200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6305,11 +6539,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-980200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6317,13 +6551,16 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-811800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+        <v>-996600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-426000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-364300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>681500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-138300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>16100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>21900</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-101000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-58700</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>23200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>71900</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+        <v>-2426500</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>1312400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-499700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>369300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-99000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-278200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>402900</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>397000</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7990800</v>
+        <v>4185100</v>
       </c>
       <c r="E8" s="3">
-        <v>7888300</v>
+        <v>7912500</v>
       </c>
       <c r="F8" s="3">
-        <v>3832600</v>
+        <v>7810900</v>
       </c>
       <c r="G8" s="3">
-        <v>7254100</v>
+        <v>3795000</v>
       </c>
       <c r="H8" s="3">
-        <v>3426900</v>
+        <v>7183000</v>
       </c>
       <c r="I8" s="3">
-        <v>7594300</v>
+        <v>3393300</v>
       </c>
       <c r="J8" s="3">
+        <v>7519900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3512000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6810300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3811700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9363600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5576900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8744700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4927000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7335700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4628400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9686600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4595900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10635100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4759400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9978500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4831200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10340000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>6752100</v>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>6389300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6146500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6131200</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+        <v>6685900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6326700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6086200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6071100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>5861300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7495800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7317500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>5732800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>8039600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>8278100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>8194100</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>13701700</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1238700</v>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1499000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1107700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1463100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1226600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1484300</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1096800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1448800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>949100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1867800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1427300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1602900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1647000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2357000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1784400</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>90000</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>87500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>112000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+        <v>89100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>86700</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>62700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>46600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>18700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>17300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>36700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>25300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-295800</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1307,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1302,20 +1325,23 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>127600</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>119600</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>7443600</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>7094100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6668200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>7499000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+        <v>7370600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7024500</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6602900</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7425500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>10228500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>8456200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>7944600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>6829900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>8634900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>9091000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>9033700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>8352300</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>547200</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>794200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>585900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>95300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+        <v>541800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>786400</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>580100</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3418200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>907500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>800200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>505700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>1051700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>1544000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>944800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1987700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,105 +1548,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>119400</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>20300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>54800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-163600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>54200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-265800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>429700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>224700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>210900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>361800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>239100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>109800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>968100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>324000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1441200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3">
+        <v>927200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="J21" s="3">
+        <v>671500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1621,272 +1658,284 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1782500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1298100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1169300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1536000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>2206400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1486100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>2400000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>171400</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>156400</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>174100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>179200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>169700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>154800</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>172400</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>191900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>238900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>242400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>187400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>168200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>171000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>167600</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>167900</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>495200</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>658200</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>466500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-247500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+        <v>490300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>651700</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>462000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-3875900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>1098300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>561600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>543000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>1094400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>1734900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>1016300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1929600</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>139000</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>145500</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>126700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>124600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+        <v>137600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>144100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>125400</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>13300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>226000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>150100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>151900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>182300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>335900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>189800</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>323700</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>356200</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>512700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>339800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-372000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+        <v>352700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>507600</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>336500</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-368400</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3889200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>872300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>411500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>391100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>912100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>1399000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>826500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1606000</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>305100</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>455400</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>298900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-410800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+        <v>302100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>451000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>296000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-406800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-3914900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>805900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>369700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>348800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>869300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>1323200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>777500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1520000</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,68 +2239,71 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>15700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-8300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-64100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>59300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>166900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>268700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-119400</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-54800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>163600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>265800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-429700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-224700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-210900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-361800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-239100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-109800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>305100</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>455400</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>298900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-395100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+        <v>302100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>451000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>296000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-391200</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>-3923200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>741800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>429000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>515800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>869300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>1591900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>777500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1520000</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>305100</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>455400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>298900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-395100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+        <v>302100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>451000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>296000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-391200</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>-3923200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>741800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>429000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>515800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>869300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>1591900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>777500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1520000</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,28 +2920,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2099600</v>
+        <v>2079100</v>
       </c>
       <c r="E41" s="3">
-        <v>4593100</v>
+        <v>4548000</v>
       </c>
       <c r="F41" s="3">
-        <v>4194700</v>
+        <v>4153500</v>
       </c>
       <c r="G41" s="3">
-        <v>15258300</v>
+        <v>15108700</v>
       </c>
       <c r="H41" s="3">
-        <v>3267900</v>
+        <v>3235800</v>
       </c>
       <c r="I41" s="3">
-        <v>13373500</v>
+        <v>13242400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2866,50 +2953,53 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>15418600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>2984200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>3491100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>2871300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>3119100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>3725100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>2970900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
@@ -2976,34 +3066,37 @@
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>237900</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13230300</v>
+        <v>13100500</v>
       </c>
       <c r="E43" s="3">
-        <v>12989300</v>
+        <v>12861900</v>
       </c>
       <c r="F43" s="3">
-        <v>11615200</v>
+        <v>11501300</v>
       </c>
       <c r="G43" s="3">
-        <v>12503500</v>
+        <v>12380900</v>
       </c>
       <c r="H43" s="3">
-        <v>10598200</v>
+        <v>10494300</v>
       </c>
       <c r="I43" s="3">
-        <v>27383200</v>
+        <v>27114700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3014,70 +3107,73 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>15478600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>17299200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>16701500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>15659500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>15736500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>14605800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>16171500</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>406700</v>
+        <v>402700</v>
       </c>
       <c r="E44" s="3">
-        <v>300500</v>
+        <v>297500</v>
       </c>
       <c r="F44" s="3">
-        <v>330100</v>
+        <v>326900</v>
       </c>
       <c r="G44" s="3">
-        <v>312400</v>
+        <v>309300</v>
       </c>
       <c r="H44" s="3">
-        <v>369500</v>
+        <v>365900</v>
       </c>
       <c r="I44" s="3">
-        <v>413400</v>
+        <v>409400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3088,70 +3184,73 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>476600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>576100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>484100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>524600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>1076600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>1113600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>527200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>351600</v>
+        <v>348100</v>
       </c>
       <c r="E45" s="3">
-        <v>257600</v>
+        <v>255100</v>
       </c>
       <c r="F45" s="3">
-        <v>316300</v>
+        <v>313200</v>
       </c>
       <c r="G45" s="3">
-        <v>293700</v>
+        <v>290800</v>
       </c>
       <c r="H45" s="3">
-        <v>428200</v>
+        <v>424000</v>
       </c>
       <c r="I45" s="3">
-        <v>915300</v>
+        <v>906400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3162,70 +3261,73 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1055300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>550600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>381200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>546200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>390400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>529400</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>427600</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16088100</v>
+        <v>15930400</v>
       </c>
       <c r="E46" s="3">
-        <v>18140500</v>
+        <v>17962600</v>
       </c>
       <c r="F46" s="3">
-        <v>16456400</v>
+        <v>16295000</v>
       </c>
       <c r="G46" s="3">
-        <v>28368000</v>
+        <v>28089800</v>
       </c>
       <c r="H46" s="3">
-        <v>14663800</v>
+        <v>14520000</v>
       </c>
       <c r="I46" s="3">
-        <v>28100900</v>
+        <v>27825300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3236,70 +3338,73 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>32429200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>21410100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>21057900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>19601700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>19769200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>19395900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>20335200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>916700</v>
+        <v>907800</v>
       </c>
       <c r="E47" s="3">
-        <v>920100</v>
+        <v>911000</v>
       </c>
       <c r="F47" s="3">
-        <v>1294800</v>
+        <v>1282100</v>
       </c>
       <c r="G47" s="3">
-        <v>878700</v>
+        <v>870000</v>
       </c>
       <c r="H47" s="3">
-        <v>1251200</v>
+        <v>1238900</v>
       </c>
       <c r="I47" s="3">
-        <v>1713900</v>
+        <v>1697100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3310,70 +3415,73 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1788300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1804800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1933000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2366400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2893900</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>3138300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>3133600</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2868300</v>
+        <v>2840200</v>
       </c>
       <c r="E48" s="3">
-        <v>2710600</v>
+        <v>2684000</v>
       </c>
       <c r="F48" s="3">
-        <v>2680200</v>
+        <v>2653900</v>
       </c>
       <c r="G48" s="3">
-        <v>2715200</v>
+        <v>2688600</v>
       </c>
       <c r="H48" s="3">
-        <v>3179500</v>
+        <v>3148300</v>
       </c>
       <c r="I48" s="3">
-        <v>3088000</v>
+        <v>3057700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3384,70 +3492,73 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>3560200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>3858100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1430400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1332600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>1277600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>1213700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1275600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11482100</v>
+        <v>11369500</v>
       </c>
       <c r="E49" s="3">
-        <v>10612700</v>
+        <v>10508700</v>
       </c>
       <c r="F49" s="3">
-        <v>10278900</v>
+        <v>10178100</v>
       </c>
       <c r="G49" s="3">
-        <v>10383600</v>
+        <v>10281800</v>
       </c>
       <c r="H49" s="3">
-        <v>11366600</v>
+        <v>11255100</v>
       </c>
       <c r="I49" s="3">
-        <v>13697300</v>
+        <v>13563000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3458,50 +3569,53 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>15791900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>20650400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>19871000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>19246300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>19527200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>19816900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>20320200</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>601600</v>
+        <v>595700</v>
       </c>
       <c r="E52" s="3">
-        <v>584500</v>
+        <v>578700</v>
       </c>
       <c r="F52" s="3">
-        <v>313200</v>
+        <v>310200</v>
       </c>
       <c r="G52" s="3">
-        <v>436600</v>
+        <v>432300</v>
       </c>
       <c r="H52" s="3">
-        <v>242700</v>
+        <v>240400</v>
       </c>
       <c r="I52" s="3">
-        <v>385000</v>
+        <v>381300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3680,50 +3800,53 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>443900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>464300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>439800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>439900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>438900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>466900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>454700</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,28 +3919,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31956900</v>
+        <v>31643500</v>
       </c>
       <c r="E54" s="3">
-        <v>32968400</v>
+        <v>32645100</v>
       </c>
       <c r="F54" s="3">
-        <v>31023600</v>
+        <v>30719300</v>
       </c>
       <c r="G54" s="3">
-        <v>42782100</v>
+        <v>42362500</v>
       </c>
       <c r="H54" s="3">
-        <v>30703800</v>
+        <v>30402700</v>
       </c>
       <c r="I54" s="3">
-        <v>46822300</v>
+        <v>46363100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3828,50 +3954,53 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>54013400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>48187700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>44732100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>42987000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>43906700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>44031700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>45519200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,28 +4056,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11491200</v>
+        <v>11378500</v>
       </c>
       <c r="E57" s="3">
-        <v>12636300</v>
+        <v>12512400</v>
       </c>
       <c r="F57" s="3">
-        <v>10629400</v>
+        <v>10525200</v>
       </c>
       <c r="G57" s="3">
-        <v>12141600</v>
+        <v>12022600</v>
       </c>
       <c r="H57" s="3">
-        <v>8687900</v>
+        <v>8602700</v>
       </c>
       <c r="I57" s="3">
-        <v>29212800</v>
+        <v>28926300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3958,70 +4089,73 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>14330400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>13887500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>14096100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>12676500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>13139200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>12223200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>13939300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>689300</v>
+        <v>682500</v>
       </c>
       <c r="E58" s="3">
-        <v>1001800</v>
+        <v>992000</v>
       </c>
       <c r="F58" s="3">
-        <v>1266600</v>
+        <v>1254200</v>
       </c>
       <c r="G58" s="3">
-        <v>10578700</v>
+        <v>10474900</v>
       </c>
       <c r="H58" s="3">
-        <v>783700</v>
+        <v>776000</v>
       </c>
       <c r="I58" s="3">
-        <v>21171800</v>
+        <v>20964200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4032,70 +4166,73 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>12732200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>2091600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1353900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>413100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>1628000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>2433800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1320100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5424400</v>
+        <v>5371200</v>
       </c>
       <c r="E59" s="3">
-        <v>5862500</v>
+        <v>5805000</v>
       </c>
       <c r="F59" s="3">
-        <v>4780200</v>
+        <v>4733300</v>
       </c>
       <c r="G59" s="3">
-        <v>4755000</v>
+        <v>4708400</v>
       </c>
       <c r="H59" s="3">
-        <v>4518600</v>
+        <v>4474200</v>
       </c>
       <c r="I59" s="3">
-        <v>5558000</v>
+        <v>5503500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4106,70 +4243,73 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>6277400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6517600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6487500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6098600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6282500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6122800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>6816900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17604900</v>
+        <v>17432200</v>
       </c>
       <c r="E60" s="3">
-        <v>19500600</v>
+        <v>19309300</v>
       </c>
       <c r="F60" s="3">
-        <v>16676300</v>
+        <v>16512800</v>
       </c>
       <c r="G60" s="3">
-        <v>27475300</v>
+        <v>27205900</v>
       </c>
       <c r="H60" s="3">
-        <v>13990200</v>
+        <v>13853000</v>
       </c>
       <c r="I60" s="3">
-        <v>28453800</v>
+        <v>28174800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4180,70 +4320,73 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>32674500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>22496700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>21937500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>19188100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>20235700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>19563000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>22076200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7638600</v>
+        <v>7563700</v>
       </c>
       <c r="E61" s="3">
-        <v>7072400</v>
+        <v>7003100</v>
       </c>
       <c r="F61" s="3">
-        <v>7211300</v>
+        <v>7140600</v>
       </c>
       <c r="G61" s="3">
-        <v>8053200</v>
+        <v>7974200</v>
       </c>
       <c r="H61" s="3">
-        <v>8483000</v>
+        <v>8399900</v>
       </c>
       <c r="I61" s="3">
-        <v>7091200</v>
+        <v>7021700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4255,69 +4398,72 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>8175600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>9978600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7442400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>8446400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>8152500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>8598700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>7327800</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1662000</v>
+        <v>1645700</v>
       </c>
       <c r="E62" s="3">
-        <v>1582100</v>
+        <v>1566600</v>
       </c>
       <c r="F62" s="3">
-        <v>1455000</v>
+        <v>1440700</v>
       </c>
       <c r="G62" s="3">
-        <v>1279800</v>
+        <v>1267200</v>
       </c>
       <c r="H62" s="3">
-        <v>1407400</v>
+        <v>1393600</v>
       </c>
       <c r="I62" s="3">
-        <v>1994100</v>
+        <v>1974600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4328,50 +4474,53 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1685900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1930800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>2399700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>2432700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>2532700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>3021700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>3253300</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,28 +4747,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27471400</v>
+        <v>27202000</v>
       </c>
       <c r="E66" s="3">
-        <v>28690500</v>
+        <v>28409200</v>
       </c>
       <c r="F66" s="3">
-        <v>25710900</v>
+        <v>25458800</v>
       </c>
       <c r="G66" s="3">
-        <v>37184600</v>
+        <v>36819900</v>
       </c>
       <c r="H66" s="3">
-        <v>24316400</v>
+        <v>24077900</v>
       </c>
       <c r="I66" s="3">
-        <v>37446700</v>
+        <v>37079500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4624,50 +4782,53 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>43042600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>34961600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>32340200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>30603800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>31532300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>31753700</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>33240800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4948300</v>
+        <v>4899800</v>
       </c>
       <c r="E72" s="3">
-        <v>4768700</v>
+        <v>4722000</v>
       </c>
       <c r="F72" s="3">
-        <v>5806500</v>
+        <v>5749600</v>
       </c>
       <c r="G72" s="3">
-        <v>6092400</v>
+        <v>6032700</v>
       </c>
       <c r="H72" s="3">
-        <v>6889400</v>
+        <v>6821900</v>
       </c>
       <c r="I72" s="3">
-        <v>9938100</v>
+        <v>9840700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5022,50 +5196,53 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>11619500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>13918500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>13121900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>13135200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>12986500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>12828500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>12629500</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,28 +5469,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4485400</v>
+        <v>4441500</v>
       </c>
       <c r="E76" s="3">
-        <v>4277800</v>
+        <v>4235900</v>
       </c>
       <c r="F76" s="3">
-        <v>5312600</v>
+        <v>5260500</v>
       </c>
       <c r="G76" s="3">
-        <v>5597500</v>
+        <v>5542600</v>
       </c>
       <c r="H76" s="3">
-        <v>6387400</v>
+        <v>6324800</v>
       </c>
       <c r="I76" s="3">
-        <v>9375500</v>
+        <v>9283600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5318,50 +5504,53 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>10970900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>13226200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>12391900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>12383200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>12374400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>12278000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>12278400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>305100</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>455400</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>298900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-395100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+        <v>302100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>451000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>296000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-391200</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>-3923200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>741800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>429000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>515800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>869300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>1591900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>777500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1520000</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>285400</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-328700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>611300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>281800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="J83" s="3">
+        <v>697900</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>429900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>468900</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>412000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>249800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>277000</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>278300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>275200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-1314000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3682100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2381000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
+      <c r="H89" s="3">
+        <v>45900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="J89" s="3">
+        <v>2406800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>2696100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>-173600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2140900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>94200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1724900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>111600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>2248600</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-121100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>188300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-308300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>-130700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="J91" s="3">
+        <v>-255700</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-263800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-207100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-204300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-246400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-130400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-187600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-220000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>534300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-752200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>-330400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="J94" s="3">
+        <v>-196300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>2316500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>83800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-34200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>272000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-238300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-413500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-790700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6497,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-368600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6509,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-142900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6518,11 +6752,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6530,11 +6764,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-987200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6542,11 +6776,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-980200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6554,13 +6788,16 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-811800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-996600</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1422500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2409400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="H100" s="3">
+        <v>-755100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="J100" s="3">
+        <v>-293400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-426000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-364300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>681500</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>104100</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>255500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-152400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
+      <c r="H101" s="3">
+        <v>-120200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="J101" s="3">
+        <v>-116200</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-138300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>16100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>21900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-101000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-58700</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>23200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>71900</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2426500</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1469700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-932900</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+      <c r="H102" s="3">
+        <v>-1159800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="J102" s="3">
+        <v>1800900</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>1312400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-499700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>369300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-99000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-278200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>402900</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>397000</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4185100</v>
+        <v>4260800</v>
       </c>
       <c r="E8" s="3">
-        <v>7912500</v>
+        <v>8055800</v>
       </c>
       <c r="F8" s="3">
-        <v>7810900</v>
+        <v>7952400</v>
       </c>
       <c r="G8" s="3">
-        <v>3795000</v>
+        <v>3863700</v>
       </c>
       <c r="H8" s="3">
-        <v>7183000</v>
+        <v>7313100</v>
       </c>
       <c r="I8" s="3">
-        <v>3393300</v>
+        <v>3454700</v>
       </c>
       <c r="J8" s="3">
-        <v>7519900</v>
+        <v>7656000</v>
       </c>
       <c r="K8" s="3">
         <v>3512000</v>
@@ -858,22 +858,22 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>6685900</v>
+        <v>6807000</v>
       </c>
       <c r="F9" s="3">
-        <v>6326700</v>
+        <v>6441200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>6086200</v>
+        <v>6196400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>6071100</v>
+        <v>6181000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -935,22 +935,22 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1226600</v>
+        <v>1248800</v>
       </c>
       <c r="F10" s="3">
-        <v>1484300</v>
+        <v>1511100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>1096800</v>
+        <v>1116700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>1448800</v>
+        <v>1475000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -1195,22 +1195,22 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>89100</v>
+        <v>90800</v>
       </c>
       <c r="F14" s="3">
-        <v>86700</v>
+        <v>88200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>110900</v>
+        <v>112900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1375,22 +1375,22 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>7370600</v>
+        <v>7504100</v>
       </c>
       <c r="F17" s="3">
-        <v>7024500</v>
+        <v>7151700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>6602900</v>
+        <v>6722400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>7425500</v>
+        <v>7559900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
@@ -1452,22 +1452,22 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>541800</v>
+        <v>551700</v>
       </c>
       <c r="F18" s="3">
-        <v>786400</v>
+        <v>800700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>580100</v>
+        <v>590700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
@@ -1558,22 +1558,22 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>118200</v>
+        <v>120300</v>
       </c>
       <c r="F20" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>54200</v>
+        <v>55200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>-162000</v>
+        <v>-164900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
@@ -1635,22 +1635,22 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>324000</v>
+        <v>329800</v>
       </c>
       <c r="F21" s="3">
-        <v>1441200</v>
+        <v>1467300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>927200</v>
+        <v>944000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
-        <v>671500</v>
+        <v>683700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1712,22 +1712,22 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>169700</v>
+        <v>172800</v>
       </c>
       <c r="F22" s="3">
-        <v>154800</v>
+        <v>157600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>172400</v>
+        <v>175500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="3">
-        <v>177500</v>
+        <v>180700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1789,22 +1789,22 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>490300</v>
+        <v>499200</v>
       </c>
       <c r="F23" s="3">
-        <v>651700</v>
+        <v>663500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>462000</v>
+        <v>470300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3">
-        <v>-245000</v>
+        <v>-249500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1866,22 +1866,22 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>137600</v>
+        <v>140100</v>
       </c>
       <c r="F24" s="3">
-        <v>144100</v>
+        <v>146700</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>125400</v>
+        <v>127700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3">
-        <v>123300</v>
+        <v>125600</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
@@ -2020,22 +2020,22 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>352700</v>
+        <v>359100</v>
       </c>
       <c r="F26" s="3">
-        <v>507600</v>
+        <v>516800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>336500</v>
+        <v>342600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="3">
-        <v>-368400</v>
+        <v>-375000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>5</v>
@@ -2097,22 +2097,22 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>302100</v>
+        <v>307500</v>
       </c>
       <c r="F27" s="3">
-        <v>451000</v>
+        <v>459100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>296000</v>
+        <v>301300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3">
-        <v>-406800</v>
+        <v>-414200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>5</v>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2482,22 +2482,22 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-118200</v>
+        <v>-120300</v>
       </c>
       <c r="F32" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>-54200</v>
+        <v>-55200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <v>162000</v>
+        <v>164900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
@@ -2559,22 +2559,22 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>302100</v>
+        <v>307500</v>
       </c>
       <c r="F33" s="3">
-        <v>451000</v>
+        <v>459100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>296000</v>
+        <v>301300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>-391200</v>
+        <v>-398300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>5</v>
@@ -2713,22 +2713,22 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>302100</v>
+        <v>307500</v>
       </c>
       <c r="F35" s="3">
-        <v>451000</v>
+        <v>459100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>296000</v>
+        <v>301300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="3">
-        <v>-391200</v>
+        <v>-398300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>5</v>
@@ -2927,22 +2927,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2079100</v>
+        <v>2116700</v>
       </c>
       <c r="E41" s="3">
-        <v>4548000</v>
+        <v>4630400</v>
       </c>
       <c r="F41" s="3">
-        <v>4153500</v>
+        <v>4228800</v>
       </c>
       <c r="G41" s="3">
-        <v>15108700</v>
+        <v>15382300</v>
       </c>
       <c r="H41" s="3">
-        <v>3235800</v>
+        <v>3294400</v>
       </c>
       <c r="I41" s="3">
-        <v>13242400</v>
+        <v>13482200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3081,22 +3081,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13100500</v>
+        <v>13337700</v>
       </c>
       <c r="E43" s="3">
-        <v>12861900</v>
+        <v>13094800</v>
       </c>
       <c r="F43" s="3">
-        <v>11501300</v>
+        <v>11709600</v>
       </c>
       <c r="G43" s="3">
-        <v>12380900</v>
+        <v>12605100</v>
       </c>
       <c r="H43" s="3">
-        <v>10494300</v>
+        <v>10684300</v>
       </c>
       <c r="I43" s="3">
-        <v>27114700</v>
+        <v>27605700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3158,22 +3158,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>402700</v>
+        <v>410000</v>
       </c>
       <c r="E44" s="3">
-        <v>297500</v>
+        <v>302900</v>
       </c>
       <c r="F44" s="3">
-        <v>326900</v>
+        <v>332800</v>
       </c>
       <c r="G44" s="3">
-        <v>309300</v>
+        <v>314900</v>
       </c>
       <c r="H44" s="3">
-        <v>365900</v>
+        <v>372500</v>
       </c>
       <c r="I44" s="3">
-        <v>409400</v>
+        <v>416800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3235,22 +3235,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>348100</v>
+        <v>354400</v>
       </c>
       <c r="E45" s="3">
-        <v>255100</v>
+        <v>259700</v>
       </c>
       <c r="F45" s="3">
-        <v>313200</v>
+        <v>318900</v>
       </c>
       <c r="G45" s="3">
-        <v>290800</v>
+        <v>296100</v>
       </c>
       <c r="H45" s="3">
-        <v>424000</v>
+        <v>431700</v>
       </c>
       <c r="I45" s="3">
-        <v>906400</v>
+        <v>922800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3312,22 +3312,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15930400</v>
+        <v>16218900</v>
       </c>
       <c r="E46" s="3">
-        <v>17962600</v>
+        <v>18287900</v>
       </c>
       <c r="F46" s="3">
-        <v>16295000</v>
+        <v>16590100</v>
       </c>
       <c r="G46" s="3">
-        <v>28089800</v>
+        <v>28598400</v>
       </c>
       <c r="H46" s="3">
-        <v>14520000</v>
+        <v>14783000</v>
       </c>
       <c r="I46" s="3">
-        <v>27825300</v>
+        <v>28329100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3389,22 +3389,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>907800</v>
+        <v>924200</v>
       </c>
       <c r="E47" s="3">
-        <v>911000</v>
+        <v>927500</v>
       </c>
       <c r="F47" s="3">
-        <v>1282100</v>
+        <v>1305300</v>
       </c>
       <c r="G47" s="3">
-        <v>870000</v>
+        <v>885800</v>
       </c>
       <c r="H47" s="3">
-        <v>1238900</v>
+        <v>1261300</v>
       </c>
       <c r="I47" s="3">
-        <v>1697100</v>
+        <v>1727800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3466,22 +3466,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2840200</v>
+        <v>2891600</v>
       </c>
       <c r="E48" s="3">
-        <v>2684000</v>
+        <v>2732600</v>
       </c>
       <c r="F48" s="3">
-        <v>2653900</v>
+        <v>2702000</v>
       </c>
       <c r="G48" s="3">
-        <v>2688600</v>
+        <v>2737300</v>
       </c>
       <c r="H48" s="3">
-        <v>3148300</v>
+        <v>3205300</v>
       </c>
       <c r="I48" s="3">
-        <v>3057700</v>
+        <v>3113000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3543,22 +3543,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11369500</v>
+        <v>11575300</v>
       </c>
       <c r="E49" s="3">
-        <v>10508700</v>
+        <v>10699000</v>
       </c>
       <c r="F49" s="3">
-        <v>10178100</v>
+        <v>10362400</v>
       </c>
       <c r="G49" s="3">
-        <v>10281800</v>
+        <v>10468000</v>
       </c>
       <c r="H49" s="3">
-        <v>11255100</v>
+        <v>11458900</v>
       </c>
       <c r="I49" s="3">
-        <v>13563000</v>
+        <v>13808600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3774,22 +3774,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>595700</v>
+        <v>606500</v>
       </c>
       <c r="E52" s="3">
-        <v>578700</v>
+        <v>589200</v>
       </c>
       <c r="F52" s="3">
-        <v>310200</v>
+        <v>315800</v>
       </c>
       <c r="G52" s="3">
-        <v>432300</v>
+        <v>440200</v>
       </c>
       <c r="H52" s="3">
-        <v>240400</v>
+        <v>244700</v>
       </c>
       <c r="I52" s="3">
-        <v>381300</v>
+        <v>388200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3928,22 +3928,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31643500</v>
+        <v>32216500</v>
       </c>
       <c r="E54" s="3">
-        <v>32645100</v>
+        <v>33236200</v>
       </c>
       <c r="F54" s="3">
-        <v>30719300</v>
+        <v>31275600</v>
       </c>
       <c r="G54" s="3">
-        <v>42362500</v>
+        <v>43129600</v>
       </c>
       <c r="H54" s="3">
-        <v>30402700</v>
+        <v>30953300</v>
       </c>
       <c r="I54" s="3">
-        <v>46363100</v>
+        <v>47202600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4063,22 +4063,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11378500</v>
+        <v>11584500</v>
       </c>
       <c r="E57" s="3">
-        <v>12512400</v>
+        <v>12739000</v>
       </c>
       <c r="F57" s="3">
-        <v>10525200</v>
+        <v>10715800</v>
       </c>
       <c r="G57" s="3">
-        <v>12022600</v>
+        <v>12240300</v>
       </c>
       <c r="H57" s="3">
-        <v>8602700</v>
+        <v>8758500</v>
       </c>
       <c r="I57" s="3">
-        <v>28926300</v>
+        <v>29450100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4140,22 +4140,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>682500</v>
+        <v>694900</v>
       </c>
       <c r="E58" s="3">
-        <v>992000</v>
+        <v>1009900</v>
       </c>
       <c r="F58" s="3">
-        <v>1254200</v>
+        <v>1276900</v>
       </c>
       <c r="G58" s="3">
-        <v>10474900</v>
+        <v>10664600</v>
       </c>
       <c r="H58" s="3">
-        <v>776000</v>
+        <v>790000</v>
       </c>
       <c r="I58" s="3">
-        <v>20964200</v>
+        <v>21343800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4217,22 +4217,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5371200</v>
+        <v>5468500</v>
       </c>
       <c r="E59" s="3">
-        <v>5805000</v>
+        <v>5910100</v>
       </c>
       <c r="F59" s="3">
-        <v>4733300</v>
+        <v>4819100</v>
       </c>
       <c r="G59" s="3">
-        <v>4708400</v>
+        <v>4793700</v>
       </c>
       <c r="H59" s="3">
-        <v>4474200</v>
+        <v>4555300</v>
       </c>
       <c r="I59" s="3">
-        <v>5503500</v>
+        <v>5603100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4294,22 +4294,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17432200</v>
+        <v>17747900</v>
       </c>
       <c r="E60" s="3">
-        <v>19309300</v>
+        <v>19659000</v>
       </c>
       <c r="F60" s="3">
-        <v>16512800</v>
+        <v>16811800</v>
       </c>
       <c r="G60" s="3">
-        <v>27205900</v>
+        <v>27698500</v>
       </c>
       <c r="H60" s="3">
-        <v>13853000</v>
+        <v>14103800</v>
       </c>
       <c r="I60" s="3">
-        <v>28174800</v>
+        <v>28685000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4371,22 +4371,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7563700</v>
+        <v>7700600</v>
       </c>
       <c r="E61" s="3">
-        <v>7003100</v>
+        <v>7129900</v>
       </c>
       <c r="F61" s="3">
-        <v>7140600</v>
+        <v>7269900</v>
       </c>
       <c r="G61" s="3">
-        <v>7974200</v>
+        <v>8118600</v>
       </c>
       <c r="H61" s="3">
-        <v>8399900</v>
+        <v>8552000</v>
       </c>
       <c r="I61" s="3">
-        <v>7021700</v>
+        <v>7148900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4448,22 +4448,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1645700</v>
+        <v>1675500</v>
       </c>
       <c r="E62" s="3">
-        <v>1566600</v>
+        <v>1595000</v>
       </c>
       <c r="F62" s="3">
-        <v>1440700</v>
+        <v>1466800</v>
       </c>
       <c r="G62" s="3">
-        <v>1267200</v>
+        <v>1290200</v>
       </c>
       <c r="H62" s="3">
-        <v>1393600</v>
+        <v>1418800</v>
       </c>
       <c r="I62" s="3">
-        <v>1974600</v>
+        <v>2010300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4756,22 +4756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27202000</v>
+        <v>27694600</v>
       </c>
       <c r="E66" s="3">
-        <v>28409200</v>
+        <v>28923600</v>
       </c>
       <c r="F66" s="3">
-        <v>25458800</v>
+        <v>25919800</v>
       </c>
       <c r="G66" s="3">
-        <v>36819900</v>
+        <v>37486700</v>
       </c>
       <c r="H66" s="3">
-        <v>24077900</v>
+        <v>24514000</v>
       </c>
       <c r="I66" s="3">
-        <v>37079500</v>
+        <v>37750900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5170,22 +5170,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4899800</v>
+        <v>4988500</v>
       </c>
       <c r="E72" s="3">
-        <v>4722000</v>
+        <v>4807500</v>
       </c>
       <c r="F72" s="3">
-        <v>5749600</v>
+        <v>5853700</v>
       </c>
       <c r="G72" s="3">
-        <v>6032700</v>
+        <v>6141900</v>
       </c>
       <c r="H72" s="3">
-        <v>6821900</v>
+        <v>6945400</v>
       </c>
       <c r="I72" s="3">
-        <v>9840700</v>
+        <v>10018900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5478,22 +5478,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4441500</v>
+        <v>4521900</v>
       </c>
       <c r="E76" s="3">
-        <v>4235900</v>
+        <v>4312600</v>
       </c>
       <c r="F76" s="3">
-        <v>5260500</v>
+        <v>5355800</v>
       </c>
       <c r="G76" s="3">
-        <v>5542600</v>
+        <v>5643000</v>
       </c>
       <c r="H76" s="3">
-        <v>6324800</v>
+        <v>6439300</v>
       </c>
       <c r="I76" s="3">
-        <v>9283600</v>
+        <v>9451700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5717,22 +5717,22 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>302100</v>
+        <v>307500</v>
       </c>
       <c r="F81" s="3">
-        <v>451000</v>
+        <v>459100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>296000</v>
+        <v>301300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="3">
-        <v>-391200</v>
+        <v>-398300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>5</v>
@@ -5823,22 +5823,22 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>-328700</v>
+        <v>-334600</v>
       </c>
       <c r="F83" s="3">
-        <v>611300</v>
+        <v>622400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>281800</v>
+        <v>286900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
-        <v>697900</v>
+        <v>710500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -6285,22 +6285,22 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>-3682100</v>
+        <v>-3748800</v>
       </c>
       <c r="F89" s="3">
-        <v>2381000</v>
+        <v>2424100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>45900</v>
+        <v>46700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
-        <v>2406800</v>
+        <v>2450400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6391,22 +6391,22 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>188300</v>
+        <v>191800</v>
       </c>
       <c r="F91" s="3">
-        <v>-308300</v>
+        <v>-313900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-130700</v>
+        <v>-133100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3">
-        <v>-255700</v>
+        <v>-260300</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6622,22 +6622,22 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>534300</v>
+        <v>544000</v>
       </c>
       <c r="F94" s="3">
-        <v>-752200</v>
+        <v>-765800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-330400</v>
+        <v>-336400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
-        <v>-196300</v>
+        <v>-199900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-368600</v>
+        <v>-375300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-142900</v>
+        <v>-145500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7036,22 +7036,22 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>1422500</v>
+        <v>1448300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2409400</v>
+        <v>-2453000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>-755100</v>
+        <v>-768800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
-        <v>-293400</v>
+        <v>-298700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -7113,22 +7113,22 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>255500</v>
+        <v>260100</v>
       </c>
       <c r="F101" s="3">
-        <v>-152400</v>
+        <v>-155100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>-120200</v>
+        <v>-122400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="3">
-        <v>-116200</v>
+        <v>-118300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -7190,22 +7190,22 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-1469700</v>
+        <v>-1496400</v>
       </c>
       <c r="F102" s="3">
-        <v>-932900</v>
+        <v>-949800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>-1159800</v>
+        <v>-1180800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
-        <v>1800900</v>
+        <v>1833500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>4260800</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>8055800</v>
+        <v>9521200</v>
       </c>
       <c r="F8" s="3">
-        <v>7952400</v>
+        <v>4433400</v>
       </c>
       <c r="G8" s="3">
-        <v>3863700</v>
+        <v>8382000</v>
       </c>
       <c r="H8" s="3">
-        <v>7313100</v>
+        <v>8274400</v>
       </c>
       <c r="I8" s="3">
+        <v>4020200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7609200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3454700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7656000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3512000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6810300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3811700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9363600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5576900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8744700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4927000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7335700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4628400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>9686600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4595900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>10635100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4759400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>9978500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4831200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>10340000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,76 +871,82 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>6807000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6441200</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>7670600</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7082600</v>
       </c>
       <c r="H9" s="3">
-        <v>6196400</v>
+        <v>6702100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>6447300</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>6181000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>5861300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7495800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>7317500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>5732800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>8039600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>8278100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>8194100</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>13701700</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,76 +954,82 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1248800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1511100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>1850500</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1299400</v>
       </c>
       <c r="H10" s="3">
-        <v>1116700</v>
+        <v>1572300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>1161900</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1475000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>949100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1867800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1427300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1602900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1647000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>2357000</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1784400</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,76 +1234,82 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>90800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>88200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>72200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>94400</v>
       </c>
       <c r="H14" s="3">
-        <v>-14000</v>
+        <v>91800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>112900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>62700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>46600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>18700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>17300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>36700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>25300</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-295800</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,11 +1355,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
@@ -1328,20 +1373,26 @@
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>127600</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>119600</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1417,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,76 +1428,82 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>7504100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7151700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
+        <v>8576500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7808000</v>
       </c>
       <c r="H17" s="3">
-        <v>6722400</v>
+        <v>7441300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>6994600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>7559900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>10228500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>8456200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>7944600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>6829900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>8634900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>9091000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>9033700</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>8352300</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1511,82 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>551700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>800700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
+        <v>944600</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>574000</v>
       </c>
       <c r="H18" s="3">
-        <v>590700</v>
+        <v>833100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>614600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>96100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3418200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>907500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>800200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>505700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>1051700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>1544000</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>944800</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1987700</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1625,82 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>120300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
+        <v>233900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>125200</v>
       </c>
       <c r="H20" s="3">
-        <v>55200</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-164900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-265800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>429700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>224700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>210900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>361800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>239100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>109800</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1708,82 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>329800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1467300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>944000</v>
+        <v>1815200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>683700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1782500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1298100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1169300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1536000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>2206400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1486100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>2400000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,76 +1791,82 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>172800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>157600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
+        <v>258800</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>179800</v>
       </c>
       <c r="H22" s="3">
-        <v>175500</v>
+        <v>164000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="3">
+        <v>182600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>180700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>191900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>238900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>242400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>187400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>168200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>171000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>167600</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>167900</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,76 +1874,82 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>499200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>663500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
+        <v>919700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>519400</v>
       </c>
       <c r="H23" s="3">
-        <v>470300</v>
+        <v>690400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3">
+        <v>489400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-249500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-3875900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>1098300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>561600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>543000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>1094400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>1734900</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1016300</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1929600</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,76 +1957,82 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>140100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>146700</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
+        <v>331200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>145800</v>
       </c>
       <c r="H24" s="3">
-        <v>127700</v>
+        <v>152600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>125600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>13300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>226000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>150100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>151900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>182300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>335900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>189800</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>323700</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2108,14 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,76 +2123,82 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>359100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>516800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
+        <v>588500</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>373600</v>
       </c>
       <c r="H26" s="3">
-        <v>342600</v>
+        <v>537800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-375000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3889200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>872300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>411500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>391100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>912100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>1399000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>826500</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>1606000</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,76 +2206,82 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>307500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>459100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
+        <v>527100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>320000</v>
       </c>
       <c r="H27" s="3">
-        <v>301300</v>
+        <v>477700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-414200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3914900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>805900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>369700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>348800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>869300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>1323200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>777500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1520000</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,19 +2357,25 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -2266,50 +2387,50 @@
         <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>15900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-64100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>59300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>166900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>268700</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,76 +2621,82 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-120300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
+        <v>-233900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-125200</v>
       </c>
       <c r="H32" s="3">
-        <v>-55200</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>164900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>265800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-429700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-224700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-210900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-361800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-239100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-109800</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,76 +2704,82 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>307500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>459100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
+        <v>527100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>320000</v>
       </c>
       <c r="H33" s="3">
-        <v>301300</v>
+        <v>477700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>-398300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3923200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>741800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>429000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>515800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>869300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>1591900</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>777500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1520000</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2855,14 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,158 +2870,170 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>307500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>459100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
+        <v>527100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>320000</v>
       </c>
       <c r="H35" s="3">
-        <v>301300</v>
+        <v>477700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>-398300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3923200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>741800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>429000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>515800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>869300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>1591900</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>777500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1520000</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2116700</v>
+        <v>3091500</v>
       </c>
       <c r="E41" s="3">
-        <v>4630400</v>
+        <v>2202400</v>
       </c>
       <c r="F41" s="3">
-        <v>4228800</v>
+        <v>4817900</v>
       </c>
       <c r="G41" s="3">
-        <v>15382300</v>
+        <v>4400000</v>
       </c>
       <c r="H41" s="3">
-        <v>3294400</v>
+        <v>16005200</v>
       </c>
       <c r="I41" s="3">
+        <v>3427800</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>13482200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>15418600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>2984200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>3491100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>2871300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>3119100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>3725100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>2970900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3057,11 +3236,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
@@ -3069,553 +3248,601 @@
       <c r="Y42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>237900</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13337700</v>
+        <v>14905400</v>
       </c>
       <c r="E43" s="3">
-        <v>13094800</v>
+        <v>13877900</v>
       </c>
       <c r="F43" s="3">
-        <v>11709600</v>
+        <v>13625100</v>
       </c>
       <c r="G43" s="3">
-        <v>12605100</v>
+        <v>12183800</v>
       </c>
       <c r="H43" s="3">
-        <v>10684300</v>
+        <v>13115500</v>
       </c>
       <c r="I43" s="3">
+        <v>11116900</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>27605700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>15478600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>17299200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>16701500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>15659500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>15736500</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>14605800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>16171500</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>410000</v>
+        <v>437300</v>
       </c>
       <c r="E44" s="3">
-        <v>302900</v>
+        <v>426600</v>
       </c>
       <c r="F44" s="3">
-        <v>332800</v>
+        <v>315200</v>
       </c>
       <c r="G44" s="3">
-        <v>314900</v>
+        <v>346300</v>
       </c>
       <c r="H44" s="3">
-        <v>372500</v>
+        <v>327700</v>
       </c>
       <c r="I44" s="3">
+        <v>387600</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>416800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>476600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>576100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>484100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>524600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>1076600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1113600</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>527200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>354400</v>
+        <v>299900</v>
       </c>
       <c r="E45" s="3">
-        <v>259700</v>
+        <v>368800</v>
       </c>
       <c r="F45" s="3">
-        <v>318900</v>
+        <v>270200</v>
       </c>
       <c r="G45" s="3">
-        <v>296100</v>
+        <v>331800</v>
       </c>
       <c r="H45" s="3">
-        <v>431700</v>
+        <v>308100</v>
       </c>
       <c r="I45" s="3">
+        <v>449200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>922800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1055300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>550600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>381200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>546200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>390400</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>529400</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>427600</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16218900</v>
+        <v>18734000</v>
       </c>
       <c r="E46" s="3">
-        <v>18287900</v>
+        <v>16875600</v>
       </c>
       <c r="F46" s="3">
-        <v>16590100</v>
+        <v>19028400</v>
       </c>
       <c r="G46" s="3">
-        <v>28598400</v>
+        <v>17261900</v>
       </c>
       <c r="H46" s="3">
-        <v>14783000</v>
+        <v>29756500</v>
       </c>
       <c r="I46" s="3">
+        <v>15381600</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>28329100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>32429200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>21410100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>21057900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>19601700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>19769200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>19395900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>20335200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>924200</v>
+        <v>929400</v>
       </c>
       <c r="E47" s="3">
-        <v>927500</v>
+        <v>961600</v>
       </c>
       <c r="F47" s="3">
-        <v>1305300</v>
+        <v>965100</v>
       </c>
       <c r="G47" s="3">
-        <v>885800</v>
+        <v>1358200</v>
       </c>
       <c r="H47" s="3">
-        <v>1261300</v>
+        <v>921700</v>
       </c>
       <c r="I47" s="3">
+        <v>1312400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1727800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1788300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1804800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>1933000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2366400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2893900</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>3138300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>3133600</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2891600</v>
+        <v>3138200</v>
       </c>
       <c r="E48" s="3">
-        <v>2732600</v>
+        <v>3008700</v>
       </c>
       <c r="F48" s="3">
-        <v>2702000</v>
+        <v>2843300</v>
       </c>
       <c r="G48" s="3">
-        <v>2737300</v>
+        <v>2811400</v>
       </c>
       <c r="H48" s="3">
-        <v>3205300</v>
+        <v>2848100</v>
       </c>
       <c r="I48" s="3">
+        <v>3335100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>3113000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>3560200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>3858100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1430400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>1332600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>1277600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1213700</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>1275600</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11575300</v>
+        <v>12290500</v>
       </c>
       <c r="E49" s="3">
-        <v>10699000</v>
+        <v>12044100</v>
       </c>
       <c r="F49" s="3">
-        <v>10362400</v>
+        <v>11132200</v>
       </c>
       <c r="G49" s="3">
-        <v>10468000</v>
+        <v>10782100</v>
       </c>
       <c r="H49" s="3">
-        <v>11458900</v>
+        <v>10891900</v>
       </c>
       <c r="I49" s="3">
+        <v>11923000</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>13808600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>15791900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>20650400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>19871000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>19246300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>19527200</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>19816900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>20320200</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>606500</v>
+        <v>670900</v>
       </c>
       <c r="E52" s="3">
-        <v>589200</v>
+        <v>631100</v>
       </c>
       <c r="F52" s="3">
-        <v>315800</v>
+        <v>613100</v>
       </c>
       <c r="G52" s="3">
-        <v>440200</v>
+        <v>328600</v>
       </c>
       <c r="H52" s="3">
-        <v>244700</v>
+        <v>458000</v>
       </c>
       <c r="I52" s="3">
+        <v>254600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>388200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>443900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>464300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>439800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>439900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>438900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>466900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>454700</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32216500</v>
+        <v>35763000</v>
       </c>
       <c r="E54" s="3">
-        <v>33236200</v>
+        <v>33521100</v>
       </c>
       <c r="F54" s="3">
-        <v>31275600</v>
+        <v>34582100</v>
       </c>
       <c r="G54" s="3">
-        <v>43129600</v>
+        <v>32542100</v>
       </c>
       <c r="H54" s="3">
-        <v>30953300</v>
+        <v>44876100</v>
       </c>
       <c r="I54" s="3">
+        <v>32206700</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>47202600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>54013400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>48187700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>44732100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>42987000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>43906700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>44031700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>45519200</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,343 +4316,369 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11584500</v>
+        <v>13951900</v>
       </c>
       <c r="E57" s="3">
-        <v>12739000</v>
+        <v>12053600</v>
       </c>
       <c r="F57" s="3">
-        <v>10715800</v>
+        <v>13254800</v>
       </c>
       <c r="G57" s="3">
-        <v>12240300</v>
+        <v>11149700</v>
       </c>
       <c r="H57" s="3">
-        <v>8758500</v>
+        <v>12735900</v>
       </c>
       <c r="I57" s="3">
+        <v>9113200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>29450100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>14330400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>13887500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>14096100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>12676500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>13139200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>12223200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>13939300</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>694900</v>
+        <v>1800900</v>
       </c>
       <c r="E58" s="3">
-        <v>1009900</v>
+        <v>723000</v>
       </c>
       <c r="F58" s="3">
-        <v>1276900</v>
+        <v>1050800</v>
       </c>
       <c r="G58" s="3">
-        <v>10664600</v>
+        <v>1328600</v>
       </c>
       <c r="H58" s="3">
-        <v>790000</v>
+        <v>11096500</v>
       </c>
       <c r="I58" s="3">
+        <v>822000</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>21343800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>12732200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>2091600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>1353900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>413100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>1628000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2433800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1320100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5468500</v>
+        <v>6219600</v>
       </c>
       <c r="E59" s="3">
-        <v>5910100</v>
+        <v>5689900</v>
       </c>
       <c r="F59" s="3">
-        <v>4819100</v>
+        <v>6149400</v>
       </c>
       <c r="G59" s="3">
-        <v>4793700</v>
+        <v>5014200</v>
       </c>
       <c r="H59" s="3">
-        <v>4555300</v>
+        <v>4987800</v>
       </c>
       <c r="I59" s="3">
+        <v>4739700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>5603100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6277400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6517600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6487500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6098600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6282500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>6122800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>6816900</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17747900</v>
+        <v>21972500</v>
       </c>
       <c r="E60" s="3">
-        <v>19659000</v>
+        <v>18466600</v>
       </c>
       <c r="F60" s="3">
-        <v>16811800</v>
+        <v>20455100</v>
       </c>
       <c r="G60" s="3">
-        <v>27698500</v>
+        <v>17492600</v>
       </c>
       <c r="H60" s="3">
-        <v>14103800</v>
+        <v>28820200</v>
       </c>
       <c r="I60" s="3">
+        <v>14674900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>28685000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>32674500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>22496700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>21937500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>19188100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>20235700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>19563000</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>22076200</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7700600</v>
+        <v>7109800</v>
       </c>
       <c r="E61" s="3">
-        <v>7129900</v>
+        <v>8012500</v>
       </c>
       <c r="F61" s="3">
-        <v>7269900</v>
+        <v>7418600</v>
       </c>
       <c r="G61" s="3">
-        <v>8118600</v>
+        <v>7564300</v>
       </c>
       <c r="H61" s="3">
-        <v>8552000</v>
+        <v>8447400</v>
       </c>
       <c r="I61" s="3">
+        <v>8898300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7148900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4401,126 +4686,138 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>8175600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9978600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7442400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>8446400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>8152500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>8598700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>7327800</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1675500</v>
+        <v>1518500</v>
       </c>
       <c r="E62" s="3">
-        <v>1595000</v>
+        <v>1743300</v>
       </c>
       <c r="F62" s="3">
-        <v>1466800</v>
+        <v>1659600</v>
       </c>
       <c r="G62" s="3">
-        <v>1290200</v>
+        <v>1526200</v>
       </c>
       <c r="H62" s="3">
-        <v>1418800</v>
+        <v>1342400</v>
       </c>
       <c r="I62" s="3">
+        <v>1476300</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>2010300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1685900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1930800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>2399700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>2432700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>2532700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>3021700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>3253300</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27694600</v>
+        <v>31195800</v>
       </c>
       <c r="E66" s="3">
-        <v>28923600</v>
+        <v>28816100</v>
       </c>
       <c r="F66" s="3">
-        <v>25919800</v>
+        <v>30094900</v>
       </c>
       <c r="G66" s="3">
-        <v>37486700</v>
+        <v>26969400</v>
       </c>
       <c r="H66" s="3">
-        <v>24514000</v>
+        <v>39004700</v>
       </c>
       <c r="I66" s="3">
+        <v>25506600</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>37750900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>43042600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>34961600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>32340200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>30603800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>31532300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>31753700</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>33240800</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4988500</v>
+        <v>5018900</v>
       </c>
       <c r="E72" s="3">
-        <v>4807500</v>
+        <v>5190500</v>
       </c>
       <c r="F72" s="3">
-        <v>5853700</v>
+        <v>5002200</v>
       </c>
       <c r="G72" s="3">
-        <v>6141900</v>
+        <v>6090700</v>
       </c>
       <c r="H72" s="3">
-        <v>6945400</v>
+        <v>6390600</v>
       </c>
       <c r="I72" s="3">
+        <v>7226700</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>10018900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>11619500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>13918500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>13121900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>13135200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>12986500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>12828500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>12629500</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4521900</v>
+        <v>4567100</v>
       </c>
       <c r="E76" s="3">
-        <v>4312600</v>
+        <v>4705000</v>
       </c>
       <c r="F76" s="3">
-        <v>5355800</v>
+        <v>4487200</v>
       </c>
       <c r="G76" s="3">
-        <v>5643000</v>
+        <v>5572700</v>
       </c>
       <c r="H76" s="3">
-        <v>6439300</v>
+        <v>5871500</v>
       </c>
       <c r="I76" s="3">
+        <v>6700100</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>9451700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>10970900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>13226200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>12391900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>12383200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>12374400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>12278000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>12278400</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +6003,102 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,76 +6106,82 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>307500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>459100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
+        <v>527100</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>320000</v>
       </c>
       <c r="H81" s="3">
-        <v>301300</v>
+        <v>477700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>-398300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3923200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>741800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>429000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>515800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>869300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>1591900</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>777500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1520000</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,76 +6220,82 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>-334600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>622400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>286900</v>
+        <v>609500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>299400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>710500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>429900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>468900</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>412000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>249800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>277000</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>278300</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>275200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6718,82 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>-3748800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>2424100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>46700</v>
+        <v>869700</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1378300</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>2450400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>2696100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>-173600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>2140900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>94200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1724900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>111600</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>2248600</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-106300</v>
       </c>
       <c r="E91" s="3">
-        <v>191800</v>
+        <v>-117000</v>
       </c>
       <c r="F91" s="3">
-        <v>-313900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+        <v>-154800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-138300</v>
       </c>
       <c r="H91" s="3">
-        <v>-133100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+        <v>-132200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-140500</v>
       </c>
       <c r="J91" s="3">
+        <v>-227100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-260300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-263800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-207100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-204300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-246400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-130400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-187600</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,76 +7081,82 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>544000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-765800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-336400</v>
+        <v>-507400</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-230800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-199900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>2316500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>83800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-34200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>272000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-238300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-413500</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-790700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-453400</v>
       </c>
       <c r="F96" s="3">
-        <v>-375300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6743,61 +7210,67 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-145500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-987200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-980200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-811800</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7527,82 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>1448300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2453000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-768800</v>
+        <v>-2371200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1045400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-298700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-426000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-364300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>681500</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7113,76 +7610,82 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>260100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-155100</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-122400</v>
+        <v>79700</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>109200</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-118300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-138300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>16100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>21900</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-101000</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-58700</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>23200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>71900</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,72 +7693,78 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-1496400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-949800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1180800</v>
+        <v>-1929200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-2545300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>1833500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>1312400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-499700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>369300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-99000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-278200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>402900</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>397000</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9521200</v>
+      <c r="D8" s="3">
+        <v>9151400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>4433400</v>
+        <v>9724500</v>
       </c>
       <c r="G8" s="3">
-        <v>8382000</v>
+        <v>4528100</v>
       </c>
       <c r="H8" s="3">
-        <v>8274400</v>
+        <v>8561000</v>
       </c>
       <c r="I8" s="3">
-        <v>4020200</v>
+        <v>8451100</v>
       </c>
       <c r="J8" s="3">
+        <v>4106100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7609200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3454700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7656000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3512000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6810300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3811700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9363600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5576900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8744700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4927000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7335700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4628400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9686600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4595900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10635100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4759400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9978500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4831200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10340000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7670600</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7082600</v>
+      <c r="D9" s="3">
+        <v>7802800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7834400</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>6702100</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+        <v>7233900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6845200</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>6447300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>6181000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>5861300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7495800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>7317500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>5732800</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>8039600</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>8278100</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>8194100</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>13701700</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1850500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1299400</v>
+      <c r="D10" s="3">
+        <v>1348700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1890100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>1572300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+        <v>1327100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1605900</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1161900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1475000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>949100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1867800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1427300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1602900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1647000</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2357000</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1784400</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,91 +1242,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>72200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>94400</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>73800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>91800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+        <v>96400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>93800</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-14500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>112900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>62700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>46600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>18700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>17300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>36700</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>25300</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-295800</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1384,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
@@ -1379,20 +1402,23 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
         <v>127600</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3">
         <v>119600</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8576500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7808000</v>
+      <c r="D17" s="3">
+        <v>8763500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8759700</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>7441300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+        <v>7974700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7600300</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>6994600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>7559900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>10228500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>8456200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>7944600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>6829900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>8634900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>9091000</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>9033700</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>8352300</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>944600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>574000</v>
+      <c r="D18" s="3">
+        <v>387900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>964800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>833100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+        <v>586300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>850900</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>614600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>96100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>-3418200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>907500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>800200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>505700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>1051700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1544000</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>944800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1987700</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,108 +1649,112 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>233900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>125200</v>
+      <c r="D20" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>238900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+        <v>127900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>57400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-164900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-265800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>429700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>3800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>224700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>210900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>361800</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>239100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>109800</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1815200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1015500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>879000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1853900</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1037200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1728,311 +1765,323 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>683700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1782500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1298100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1169300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1536000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2206400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1486100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>2400000</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>258800</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>179800</v>
+      <c r="D22" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>264400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>164000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+        <v>183600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>167500</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>182600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>180700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>191900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>238900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>242400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>187400</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>168200</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>171000</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>167600</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>167900</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>919700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>519400</v>
+      <c r="D23" s="3">
+        <v>258900</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>939300</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>690400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+        <v>530500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>705100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>489400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>-249500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>-3875900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1098300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>561600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>543000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>1094400</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1734900</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1016300</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>1929600</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>331200</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>145800</v>
+      <c r="D24" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>338200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>152600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+        <v>148900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>155900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>132900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>125600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>226000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>150100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>151900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>182300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>335900</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>189800</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>323700</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>588500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>373600</v>
+      <c r="D26" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>601100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>537800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+        <v>381600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>549200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>356500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-375000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3889200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>872300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>411500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>391100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>912100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1399000</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>826500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>1606000</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>527100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>320000</v>
+      <c r="D27" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>538300</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>477700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+        <v>326800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>487900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>313600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-414200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3914900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>805900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>369700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>348800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>869300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1323200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>777500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>1520000</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,77 +2421,80 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>15900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-8300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-64100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>59300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>166900</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>268700</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-233900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-125200</v>
+      <c r="D32" s="3">
+        <v>-163400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-57400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>164900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>265800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-429700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-3800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-224700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-210900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-361800</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-239100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-109800</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>527100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>320000</v>
+      <c r="D33" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>538300</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>477700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+        <v>326800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>487900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>313600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>-398300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3923200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>741800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>429000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>515800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>869300</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1591900</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>777500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>1520000</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>527100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>320000</v>
+      <c r="D35" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>538300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>477700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+        <v>326800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>487900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>313600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>-398300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3923200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>741800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>429000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>515800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>869300</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1591900</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>777500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>1520000</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,38 +3180,39 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3091500</v>
+        <v>2487200</v>
       </c>
       <c r="E41" s="3">
-        <v>2202400</v>
+        <v>3157500</v>
       </c>
       <c r="F41" s="3">
-        <v>4817900</v>
+        <v>2249500</v>
       </c>
       <c r="G41" s="3">
-        <v>4400000</v>
+        <v>4920800</v>
       </c>
       <c r="H41" s="3">
-        <v>16005200</v>
+        <v>4494000</v>
       </c>
       <c r="I41" s="3">
-        <v>3427800</v>
+        <v>16347000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>13482200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
@@ -3135,50 +3222,53 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>15418600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>2984200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>3491100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>2871300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>3119100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>3725100</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>2970900</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,8 +3332,8 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
+      <c r="X42" s="3">
+        <v>0</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>5</v>
@@ -3254,44 +3344,47 @@
       <c r="AA42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>237900</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14905400</v>
+        <v>13393000</v>
       </c>
       <c r="E43" s="3">
-        <v>13877900</v>
+        <v>15223700</v>
       </c>
       <c r="F43" s="3">
-        <v>13625100</v>
+        <v>14174200</v>
       </c>
       <c r="G43" s="3">
-        <v>12183800</v>
+        <v>13916100</v>
       </c>
       <c r="H43" s="3">
-        <v>13115500</v>
+        <v>12444000</v>
       </c>
       <c r="I43" s="3">
-        <v>11116900</v>
+        <v>13395600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>27605700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3301,80 +3394,83 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>15478600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>17299200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>16701500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>15659500</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>15736500</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>14605800</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>16171500</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>437300</v>
+        <v>370900</v>
       </c>
       <c r="E44" s="3">
-        <v>426600</v>
+        <v>446600</v>
       </c>
       <c r="F44" s="3">
-        <v>315200</v>
+        <v>435700</v>
       </c>
       <c r="G44" s="3">
-        <v>346300</v>
+        <v>321900</v>
       </c>
       <c r="H44" s="3">
-        <v>327700</v>
+        <v>353700</v>
       </c>
       <c r="I44" s="3">
-        <v>387600</v>
+        <v>334700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>416800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3384,80 +3480,83 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>476600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>576100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>484100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>524600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1076600</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1113600</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>527200</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>299900</v>
+        <v>390500</v>
       </c>
       <c r="E45" s="3">
-        <v>368800</v>
+        <v>306300</v>
       </c>
       <c r="F45" s="3">
-        <v>270200</v>
+        <v>376600</v>
       </c>
       <c r="G45" s="3">
-        <v>331800</v>
+        <v>276000</v>
       </c>
       <c r="H45" s="3">
-        <v>308100</v>
+        <v>338900</v>
       </c>
       <c r="I45" s="3">
-        <v>449200</v>
+        <v>314700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>922800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3467,80 +3566,83 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1055300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>550600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>381200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>546200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>390400</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>529400</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>427600</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18734000</v>
+        <v>16641500</v>
       </c>
       <c r="E46" s="3">
-        <v>16875600</v>
+        <v>19134100</v>
       </c>
       <c r="F46" s="3">
-        <v>19028400</v>
+        <v>17236000</v>
       </c>
       <c r="G46" s="3">
-        <v>17261900</v>
+        <v>19434800</v>
       </c>
       <c r="H46" s="3">
-        <v>29756500</v>
+        <v>17630600</v>
       </c>
       <c r="I46" s="3">
-        <v>15381600</v>
+        <v>30392000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>28329100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
@@ -3550,80 +3652,83 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>32429200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>21410100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>21057900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>19601700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>19769200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>19395900</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>20335200</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>929400</v>
+        <v>866100</v>
       </c>
       <c r="E47" s="3">
-        <v>961600</v>
+        <v>949200</v>
       </c>
       <c r="F47" s="3">
-        <v>965100</v>
+        <v>982200</v>
       </c>
       <c r="G47" s="3">
-        <v>1358200</v>
+        <v>985700</v>
       </c>
       <c r="H47" s="3">
-        <v>921700</v>
+        <v>1387200</v>
       </c>
       <c r="I47" s="3">
-        <v>1312400</v>
+        <v>941400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>1727800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3633,80 +3738,83 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1788300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>1804800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>1933000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2366400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>2893900</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>3138300</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>3133600</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3138200</v>
+        <v>3037600</v>
       </c>
       <c r="E48" s="3">
-        <v>3008700</v>
+        <v>3205300</v>
       </c>
       <c r="F48" s="3">
-        <v>2843300</v>
+        <v>3072900</v>
       </c>
       <c r="G48" s="3">
-        <v>2811400</v>
+        <v>2904000</v>
       </c>
       <c r="H48" s="3">
-        <v>2848100</v>
+        <v>2871400</v>
       </c>
       <c r="I48" s="3">
-        <v>3335100</v>
+        <v>2909000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>3113000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3716,80 +3824,83 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3560200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>3858100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>1430400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>1332600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1277600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1213700</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>1275600</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12290500</v>
+        <v>12416600</v>
       </c>
       <c r="E49" s="3">
-        <v>12044100</v>
+        <v>12553000</v>
       </c>
       <c r="F49" s="3">
-        <v>11132200</v>
+        <v>12301300</v>
       </c>
       <c r="G49" s="3">
-        <v>10782100</v>
+        <v>11370000</v>
       </c>
       <c r="H49" s="3">
-        <v>10891900</v>
+        <v>11012300</v>
       </c>
       <c r="I49" s="3">
-        <v>11923000</v>
+        <v>11124500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>13808600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3799,50 +3910,53 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>15791900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>20650400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>19871000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>19246300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>19527200</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>19816900</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>20320200</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,38 +4124,41 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>670900</v>
+        <v>563400</v>
       </c>
       <c r="E52" s="3">
-        <v>631100</v>
+        <v>685200</v>
       </c>
       <c r="F52" s="3">
-        <v>613100</v>
+        <v>644500</v>
       </c>
       <c r="G52" s="3">
-        <v>328600</v>
+        <v>626200</v>
       </c>
       <c r="H52" s="3">
-        <v>458000</v>
+        <v>335600</v>
       </c>
       <c r="I52" s="3">
-        <v>254600</v>
+        <v>467800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>388200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4048,50 +4168,53 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>443900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>464300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>439800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>439900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>438900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>466900</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>454700</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,38 +4296,41 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35763000</v>
+        <v>33525300</v>
       </c>
       <c r="E54" s="3">
-        <v>33521100</v>
+        <v>36526800</v>
       </c>
       <c r="F54" s="3">
-        <v>34582100</v>
+        <v>34237000</v>
       </c>
       <c r="G54" s="3">
-        <v>32542100</v>
+        <v>35320700</v>
       </c>
       <c r="H54" s="3">
-        <v>44876100</v>
+        <v>33237100</v>
       </c>
       <c r="I54" s="3">
-        <v>32206700</v>
+        <v>45834600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>47202600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
@@ -4214,50 +4340,53 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>54013400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>48187700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>44732100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>42987000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>43906700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>44031700</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>45519200</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,38 +4448,39 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13951900</v>
+        <v>11943500</v>
       </c>
       <c r="E57" s="3">
-        <v>12053600</v>
+        <v>14249900</v>
       </c>
       <c r="F57" s="3">
-        <v>13254800</v>
+        <v>12311100</v>
       </c>
       <c r="G57" s="3">
-        <v>11149700</v>
+        <v>13537900</v>
       </c>
       <c r="H57" s="3">
-        <v>12735900</v>
+        <v>11387800</v>
       </c>
       <c r="I57" s="3">
-        <v>9113200</v>
+        <v>13007900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>29450100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4359,80 +4490,83 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>14330400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>13887500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>14096100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>12676500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>13139200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>12223200</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>13939300</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800900</v>
+        <v>1762900</v>
       </c>
       <c r="E58" s="3">
-        <v>723000</v>
+        <v>1839400</v>
       </c>
       <c r="F58" s="3">
-        <v>1050800</v>
+        <v>738500</v>
       </c>
       <c r="G58" s="3">
-        <v>1328600</v>
+        <v>1073300</v>
       </c>
       <c r="H58" s="3">
-        <v>11096500</v>
+        <v>1357000</v>
       </c>
       <c r="I58" s="3">
-        <v>822000</v>
+        <v>11333500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>21343800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -4442,80 +4576,83 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>12732200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>2091600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>1353900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>413100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1628000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2433800</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1320100</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6219600</v>
+        <v>5139500</v>
       </c>
       <c r="E59" s="3">
-        <v>5689900</v>
+        <v>6352500</v>
       </c>
       <c r="F59" s="3">
-        <v>6149400</v>
+        <v>5811500</v>
       </c>
       <c r="G59" s="3">
-        <v>5014200</v>
+        <v>6280700</v>
       </c>
       <c r="H59" s="3">
-        <v>4987800</v>
+        <v>5121300</v>
       </c>
       <c r="I59" s="3">
-        <v>4739700</v>
+        <v>5094300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>5603100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4525,80 +4662,83 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6277400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6517600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6487500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>6098600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>6282500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>6122800</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>6816900</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21972500</v>
+        <v>18846000</v>
       </c>
       <c r="E60" s="3">
-        <v>18466600</v>
+        <v>22441700</v>
       </c>
       <c r="F60" s="3">
-        <v>20455100</v>
+        <v>18861000</v>
       </c>
       <c r="G60" s="3">
-        <v>17492600</v>
+        <v>20891900</v>
       </c>
       <c r="H60" s="3">
-        <v>28820200</v>
+        <v>17866100</v>
       </c>
       <c r="I60" s="3">
-        <v>14674900</v>
+        <v>29435700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>28685000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4608,80 +4748,83 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>32674500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>22496700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>21937500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>19188100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>20235700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>19563000</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>22076200</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7109800</v>
+        <v>7912900</v>
       </c>
       <c r="E61" s="3">
-        <v>8012500</v>
+        <v>7261600</v>
       </c>
       <c r="F61" s="3">
-        <v>7418600</v>
+        <v>8183600</v>
       </c>
       <c r="G61" s="3">
-        <v>7564300</v>
+        <v>7577100</v>
       </c>
       <c r="H61" s="3">
-        <v>8447400</v>
+        <v>7725800</v>
       </c>
       <c r="I61" s="3">
-        <v>8898300</v>
+        <v>8627800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7148900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4692,79 +4835,82 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8175600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9978600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7442400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>8446400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>8152500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>8598700</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>7327800</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1518500</v>
+        <v>1614700</v>
       </c>
       <c r="E62" s="3">
-        <v>1743300</v>
+        <v>1550900</v>
       </c>
       <c r="F62" s="3">
-        <v>1659600</v>
+        <v>1780600</v>
       </c>
       <c r="G62" s="3">
-        <v>1526200</v>
+        <v>1695000</v>
       </c>
       <c r="H62" s="3">
-        <v>1342400</v>
+        <v>1558800</v>
       </c>
       <c r="I62" s="3">
-        <v>1476300</v>
+        <v>1371100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>2010300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4774,50 +4920,53 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1685900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1930800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>2399700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>2432700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>2532700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>3021700</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>3253300</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,38 +5220,41 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31195800</v>
+        <v>28915900</v>
       </c>
       <c r="E66" s="3">
-        <v>28816100</v>
+        <v>31862100</v>
       </c>
       <c r="F66" s="3">
-        <v>30094900</v>
+        <v>29431500</v>
       </c>
       <c r="G66" s="3">
-        <v>26969400</v>
+        <v>30737600</v>
       </c>
       <c r="H66" s="3">
-        <v>39004700</v>
+        <v>27545400</v>
       </c>
       <c r="I66" s="3">
-        <v>25506600</v>
+        <v>39837700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>37750900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
@@ -5106,50 +5264,53 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>43042600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>34961600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>32340200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>30603800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>31532300</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>31753700</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>33240800</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,38 +5682,41 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5018900</v>
+        <v>5017700</v>
       </c>
       <c r="E72" s="3">
-        <v>5190500</v>
+        <v>5126100</v>
       </c>
       <c r="F72" s="3">
-        <v>5002200</v>
+        <v>5301400</v>
       </c>
       <c r="G72" s="3">
-        <v>6090700</v>
+        <v>5109000</v>
       </c>
       <c r="H72" s="3">
-        <v>6390600</v>
+        <v>6220800</v>
       </c>
       <c r="I72" s="3">
-        <v>7226700</v>
+        <v>6527100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>10018900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5552,50 +5726,53 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>11619500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>13918500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>13121900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>13135200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>12986500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>12828500</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>12629500</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,38 +6026,41 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4567100</v>
+        <v>4609400</v>
       </c>
       <c r="E76" s="3">
-        <v>4705000</v>
+        <v>4664700</v>
       </c>
       <c r="F76" s="3">
-        <v>4487200</v>
+        <v>4805500</v>
       </c>
       <c r="G76" s="3">
-        <v>5572700</v>
+        <v>4583100</v>
       </c>
       <c r="H76" s="3">
-        <v>5871500</v>
+        <v>5691700</v>
       </c>
       <c r="I76" s="3">
-        <v>6700100</v>
+        <v>5996900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>9451700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
@@ -5884,50 +6070,53 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>10970900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>13226200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>12391900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>12383200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>12374400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>12278000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>12278400</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>527100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>320000</v>
+      <c r="D81" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>538300</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>477700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+        <v>326800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>487900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>313600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>-398300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3923200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>741800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>429000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>515800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>869300</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1591900</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>777500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>1520000</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,25 +6409,26 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>609500</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>299400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>316300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>622500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>305800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -6240,62 +6439,65 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>710500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>429900</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>468900</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>412000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>249800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>277000</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>278300</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>275200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,25 +6923,28 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>869700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1378300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>-562800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>888300</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1407700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
@@ -6738,62 +6955,65 @@
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>2450400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2696100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>-173600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>2140900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>94200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1724900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>111600</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>2248600</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-106300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-117000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-154800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-138300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-132200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-140500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-227100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-260300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-263800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-207100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-204300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-246400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-130400</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-187600</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,25 +7299,28 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-507400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-230800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-365000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-518200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-235700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
@@ -7101,62 +7331,65 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-199900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2316500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>83800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-34200</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>272000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-238300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-413500</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-790700</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7195,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-453400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-463100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7216,11 +7450,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-145500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7228,11 +7462,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7240,11 +7474,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-987200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7252,11 +7486,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-980200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7264,13 +7498,16 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-811800</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,25 +7761,28 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2371200</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1045400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2421800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1067700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
@@ -7547,79 +7793,82 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-298700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-426000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-364300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>681500</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>79700</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>109200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>81400</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>111500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -7630,79 +7879,82 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-118300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-138300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>16100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>21900</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-101000</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-58700</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>23200</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>71900</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1929200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-2545300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-596500</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1970400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2599600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
@@ -7713,58 +7965,61 @@
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>1833500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1312400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-499700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>369300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-99000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-278200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>402900</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>397000</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>9151400</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>9724500</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8958600</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>4528100</v>
+        <v>9519600</v>
       </c>
       <c r="H8" s="3">
-        <v>8561000</v>
+        <v>4432700</v>
       </c>
       <c r="I8" s="3">
-        <v>8451100</v>
+        <v>8380600</v>
       </c>
       <c r="J8" s="3">
+        <v>8273100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4106100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7609200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3454700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7656000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3512000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6810300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3811700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9363600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5576900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8744700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4927000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7335700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4628400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9686600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4595900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10635100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4759400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9978500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4831200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10340000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4754900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>7802800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7834400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7233900</v>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7638400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7669400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>6845200</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+        <v>7081500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6701000</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>6447300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>6181000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>5861300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>7495800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>7317500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>5732800</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>8039600</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>8278100</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>8194100</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>13701700</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1348700</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1890100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1327100</v>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1320200</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1850200</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>1605900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1299200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1572100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1161900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1475000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>949100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1867800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1427300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1602900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1647000</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2357000</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1784400</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-3361800</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,83 +1276,86 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>73800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>96400</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>72200</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>93800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+        <v>94400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-14500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>112900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>62700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>46600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>18700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>17300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>36700</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>25300</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-295800</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1387,8 +1410,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
@@ -1405,20 +1428,23 @@
       <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>127600</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
         <v>119600</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>8763500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8759700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7974700</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8578900</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8575200</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>7600300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+        <v>7806700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7440100</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>6994600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>7559900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>10228500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>8456200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>7944600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>6829900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>8634900</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>9091000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>9033700</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>8352300</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>387900</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>964800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>586300</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>379700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>944500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>850900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+        <v>573900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>832900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>614600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>96100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3418200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>907500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>800200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>505700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>1051700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1544000</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>944800</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1987700</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,117 +1683,121 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>163400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>238900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>127900</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>159900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>233900</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+        <v>125200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>57400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-164900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-265800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>429700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>224700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>210900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>361800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>239100</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
         <v>109800</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>879000</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>1853900</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>1037200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>343100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1526400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1768,320 +1805,332 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>683700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1782500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1298100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1169300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1536000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>2206400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1486100</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>2400000</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>292400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>264400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>183600</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>286200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>258800</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>167500</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>179800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>182600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>180700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>191900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>238900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>242400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>187400</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>168200</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>171000</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>167600</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
         <v>167900</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>258900</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>939300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>530500</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>253500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>919500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>705100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+        <v>519300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>690300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>489400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-249500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>-3875900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>1098300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>561600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>543000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>1094400</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1734900</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1016300</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
         <v>1929600</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>69700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>338200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>148900</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>331100</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>155900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+        <v>145800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>132900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>125600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>226000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>150100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>151900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>182300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>335900</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>189800</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
         <v>323700</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>189200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>601100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>381600</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>185200</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>588400</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>549200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+        <v>373500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>537700</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>356500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-375000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3889200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>872300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>411500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>391100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>912100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1399000</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>826500</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
         <v>1606000</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>141900</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>538300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>326800</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>138900</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>527000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>487900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+        <v>320000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>313600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-414200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>-3914900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>805900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>369700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>348800</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>869300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1323200</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>777500</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
         <v>1520000</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2435,69 +2496,69 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>15900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-8300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-64100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>59300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>166900</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>268700</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-163400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-238900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-127900</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-159900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-233900</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>-21800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-57400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>164900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>265800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-429700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-224700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-210900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-361800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-239100</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-109800</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>141900</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>538300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>326800</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>138900</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>527000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>487900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+        <v>320000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>313600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-398300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3923200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>741800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>429000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>515800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>869300</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1591900</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>777500</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="3">
         <v>1520000</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>141900</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>538300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>326800</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>138900</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>527000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>487900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+        <v>320000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>313600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-398300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3923200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>741800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>429000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>515800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>869300</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1591900</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>777500</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="3">
         <v>1520000</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,28 +3267,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2487200</v>
+        <v>2434800</v>
       </c>
       <c r="E41" s="3">
-        <v>3157500</v>
+        <v>3091000</v>
       </c>
       <c r="F41" s="3">
-        <v>2249500</v>
+        <v>2202100</v>
       </c>
       <c r="G41" s="3">
-        <v>4920800</v>
+        <v>4817100</v>
       </c>
       <c r="H41" s="3">
-        <v>4494000</v>
+        <v>4399300</v>
       </c>
       <c r="I41" s="3">
-        <v>16347000</v>
+        <v>16002600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3210,12 +3297,12 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>13482200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
@@ -3225,50 +3312,53 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>15418600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>2984200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>3491100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>2871300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>3119100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>3725100</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>2970900</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3335,8 +3425,8 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
+      <c r="Y42" s="3">
+        <v>0</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>5</v>
@@ -3347,34 +3437,37 @@
       <c r="AB42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>237900</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13393000</v>
+        <v>13110800</v>
       </c>
       <c r="E43" s="3">
-        <v>15223700</v>
+        <v>14903000</v>
       </c>
       <c r="F43" s="3">
-        <v>14174200</v>
+        <v>13875600</v>
       </c>
       <c r="G43" s="3">
-        <v>13916100</v>
+        <v>13622900</v>
       </c>
       <c r="H43" s="3">
-        <v>12444000</v>
+        <v>12181800</v>
       </c>
       <c r="I43" s="3">
-        <v>13395600</v>
+        <v>13113400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3382,12 +3475,12 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>27605700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3397,70 +3490,73 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>15478600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>17299200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>16701500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>15659500</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>15736500</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>14605800</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>16171500</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>370900</v>
+        <v>363100</v>
       </c>
       <c r="E44" s="3">
-        <v>446600</v>
+        <v>437200</v>
       </c>
       <c r="F44" s="3">
-        <v>435700</v>
+        <v>426500</v>
       </c>
       <c r="G44" s="3">
-        <v>321900</v>
+        <v>315100</v>
       </c>
       <c r="H44" s="3">
-        <v>353700</v>
+        <v>346300</v>
       </c>
       <c r="I44" s="3">
-        <v>334700</v>
+        <v>327600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3468,12 +3564,12 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>416800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3483,70 +3579,73 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>476600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>576100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>484100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>524600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1076600</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>1113600</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
         <v>527200</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>390500</v>
+        <v>382200</v>
       </c>
       <c r="E45" s="3">
-        <v>306300</v>
+        <v>299900</v>
       </c>
       <c r="F45" s="3">
-        <v>376600</v>
+        <v>368700</v>
       </c>
       <c r="G45" s="3">
-        <v>276000</v>
+        <v>270200</v>
       </c>
       <c r="H45" s="3">
-        <v>338900</v>
+        <v>331700</v>
       </c>
       <c r="I45" s="3">
-        <v>314700</v>
+        <v>308000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3554,12 +3653,12 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>922800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3569,70 +3668,73 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1055300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>550600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>381200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>546200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>390400</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>529400</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
         <v>427600</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16641500</v>
+        <v>16290900</v>
       </c>
       <c r="E46" s="3">
-        <v>19134100</v>
+        <v>18731000</v>
       </c>
       <c r="F46" s="3">
-        <v>17236000</v>
+        <v>16872900</v>
       </c>
       <c r="G46" s="3">
-        <v>19434800</v>
+        <v>19025300</v>
       </c>
       <c r="H46" s="3">
-        <v>17630600</v>
+        <v>17259100</v>
       </c>
       <c r="I46" s="3">
-        <v>30392000</v>
+        <v>29751700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3640,12 +3742,12 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>28329100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
@@ -3655,70 +3757,73 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>32429200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>21410100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>21057900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>19601700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>19769200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>19395900</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="3">
         <v>20335200</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>866100</v>
+        <v>847800</v>
       </c>
       <c r="E47" s="3">
-        <v>949200</v>
+        <v>929200</v>
       </c>
       <c r="F47" s="3">
-        <v>982200</v>
+        <v>961500</v>
       </c>
       <c r="G47" s="3">
-        <v>985700</v>
+        <v>964900</v>
       </c>
       <c r="H47" s="3">
-        <v>1387200</v>
+        <v>1358000</v>
       </c>
       <c r="I47" s="3">
-        <v>941400</v>
+        <v>921500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3726,12 +3831,12 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1727800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3741,70 +3846,73 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1788300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>1804800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>1933000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2366400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>2893900</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>3138300</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3">
         <v>3133600</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3037600</v>
+        <v>2973600</v>
       </c>
       <c r="E48" s="3">
-        <v>3205300</v>
+        <v>3137700</v>
       </c>
       <c r="F48" s="3">
-        <v>3072900</v>
+        <v>3008200</v>
       </c>
       <c r="G48" s="3">
-        <v>2904000</v>
+        <v>2842800</v>
       </c>
       <c r="H48" s="3">
-        <v>2871400</v>
+        <v>2811000</v>
       </c>
       <c r="I48" s="3">
-        <v>2909000</v>
+        <v>2847700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3812,12 +3920,12 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>3113000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3827,70 +3935,73 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>3560200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>3858100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>1430400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>1332600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1277600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>1213700</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>1275600</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12416600</v>
+        <v>12155000</v>
       </c>
       <c r="E49" s="3">
-        <v>12553000</v>
+        <v>12288500</v>
       </c>
       <c r="F49" s="3">
-        <v>12301300</v>
+        <v>12042100</v>
       </c>
       <c r="G49" s="3">
-        <v>11370000</v>
+        <v>11130400</v>
       </c>
       <c r="H49" s="3">
-        <v>11012300</v>
+        <v>10780300</v>
       </c>
       <c r="I49" s="3">
-        <v>11124500</v>
+        <v>10890100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3898,12 +4009,12 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>13808600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3913,50 +4024,53 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>15791900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>20650400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>19871000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>19246300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>19527200</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>19816900</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>20320200</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,28 +4244,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>563400</v>
+        <v>551600</v>
       </c>
       <c r="E52" s="3">
-        <v>685200</v>
+        <v>670800</v>
       </c>
       <c r="F52" s="3">
-        <v>644500</v>
+        <v>631000</v>
       </c>
       <c r="G52" s="3">
-        <v>626200</v>
+        <v>613000</v>
       </c>
       <c r="H52" s="3">
-        <v>335600</v>
+        <v>328500</v>
       </c>
       <c r="I52" s="3">
-        <v>467800</v>
+        <v>457900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4156,12 +4276,12 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>388200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4171,50 +4291,53 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>443900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>464300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>439800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>439900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>438900</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>466900</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>454700</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,28 +4422,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33525300</v>
+        <v>32819000</v>
       </c>
       <c r="E54" s="3">
-        <v>36526800</v>
+        <v>35757200</v>
       </c>
       <c r="F54" s="3">
-        <v>34237000</v>
+        <v>33515700</v>
       </c>
       <c r="G54" s="3">
-        <v>35320700</v>
+        <v>34576500</v>
       </c>
       <c r="H54" s="3">
-        <v>33237100</v>
+        <v>32536800</v>
       </c>
       <c r="I54" s="3">
-        <v>45834600</v>
+        <v>44868900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4328,12 +4454,12 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>47202600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
@@ -4343,50 +4469,53 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>54013400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>48187700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>44732100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>42987000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>43906700</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>44031700</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>45519200</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,28 +4579,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11943500</v>
+        <v>11691900</v>
       </c>
       <c r="E57" s="3">
-        <v>14249900</v>
+        <v>13949700</v>
       </c>
       <c r="F57" s="3">
-        <v>12311100</v>
+        <v>12051700</v>
       </c>
       <c r="G57" s="3">
-        <v>13537900</v>
+        <v>13252700</v>
       </c>
       <c r="H57" s="3">
-        <v>11387800</v>
+        <v>11147900</v>
       </c>
       <c r="I57" s="3">
-        <v>13007900</v>
+        <v>12733900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4478,12 +4609,12 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>29450100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4493,70 +4624,73 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>14330400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>13887500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>14096100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>12676500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>13139200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>12223200</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3">
         <v>13939300</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1762900</v>
+        <v>1725800</v>
       </c>
       <c r="E58" s="3">
-        <v>1839400</v>
+        <v>1800600</v>
       </c>
       <c r="F58" s="3">
-        <v>738500</v>
+        <v>722900</v>
       </c>
       <c r="G58" s="3">
-        <v>1073300</v>
+        <v>1050700</v>
       </c>
       <c r="H58" s="3">
-        <v>1357000</v>
+        <v>1328400</v>
       </c>
       <c r="I58" s="3">
-        <v>11333500</v>
+        <v>11094700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4564,12 +4698,12 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>21343800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
@@ -4579,70 +4713,73 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>12732200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>2091600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>1353900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>413100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1628000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2433800</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>1320100</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5139500</v>
+        <v>5031300</v>
       </c>
       <c r="E59" s="3">
-        <v>6352500</v>
+        <v>6218600</v>
       </c>
       <c r="F59" s="3">
-        <v>5811500</v>
+        <v>5689000</v>
       </c>
       <c r="G59" s="3">
-        <v>6280700</v>
+        <v>6148400</v>
       </c>
       <c r="H59" s="3">
-        <v>5121300</v>
+        <v>5013400</v>
       </c>
       <c r="I59" s="3">
-        <v>5094300</v>
+        <v>4987000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4650,12 +4787,12 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>5603100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4665,70 +4802,73 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6277400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6517600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6487500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6098600</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>6282500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>6122800</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>6816900</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18846000</v>
+        <v>18449000</v>
       </c>
       <c r="E60" s="3">
-        <v>22441700</v>
+        <v>21968900</v>
       </c>
       <c r="F60" s="3">
-        <v>18861000</v>
+        <v>18463600</v>
       </c>
       <c r="G60" s="3">
-        <v>20891900</v>
+        <v>20451800</v>
       </c>
       <c r="H60" s="3">
-        <v>17866100</v>
+        <v>17489700</v>
       </c>
       <c r="I60" s="3">
-        <v>29435700</v>
+        <v>28815500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4736,12 +4876,12 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>28685000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4751,70 +4891,73 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>32674500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>22496700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>21937500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>19188100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>20235700</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>19563000</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="3">
         <v>22076200</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7912900</v>
+        <v>7746200</v>
       </c>
       <c r="E61" s="3">
-        <v>7261600</v>
+        <v>7108600</v>
       </c>
       <c r="F61" s="3">
-        <v>8183600</v>
+        <v>8011200</v>
       </c>
       <c r="G61" s="3">
-        <v>7577100</v>
+        <v>7417400</v>
       </c>
       <c r="H61" s="3">
-        <v>7725800</v>
+        <v>7563100</v>
       </c>
       <c r="I61" s="3">
-        <v>8627800</v>
+        <v>8446000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4823,11 +4966,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7148900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4838,69 +4981,72 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8175600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9978600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7442400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>8446400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>8152500</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>8598700</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>7327800</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1614700</v>
+        <v>1580600</v>
       </c>
       <c r="E62" s="3">
-        <v>1550900</v>
+        <v>1518200</v>
       </c>
       <c r="F62" s="3">
-        <v>1780600</v>
+        <v>1743000</v>
       </c>
       <c r="G62" s="3">
-        <v>1695000</v>
+        <v>1659300</v>
       </c>
       <c r="H62" s="3">
-        <v>1558800</v>
+        <v>1525900</v>
       </c>
       <c r="I62" s="3">
-        <v>1371100</v>
+        <v>1342200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4908,12 +5054,12 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>2010300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4923,50 +5069,53 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1685900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1930800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>2399700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>2432700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2532700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>3021700</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
         <v>3253300</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,28 +5378,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28915900</v>
+        <v>28306600</v>
       </c>
       <c r="E66" s="3">
-        <v>31862100</v>
+        <v>31190800</v>
       </c>
       <c r="F66" s="3">
-        <v>29431500</v>
+        <v>28811400</v>
       </c>
       <c r="G66" s="3">
-        <v>30737600</v>
+        <v>30090000</v>
       </c>
       <c r="H66" s="3">
-        <v>27545400</v>
+        <v>26965100</v>
       </c>
       <c r="I66" s="3">
-        <v>39837700</v>
+        <v>38998400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5252,12 +5410,12 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>37750900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -5267,50 +5425,53 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>43042600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>34961600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>32340200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>30603800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>31532300</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>31753700</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>33240800</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,28 +5856,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5017700</v>
+        <v>4912000</v>
       </c>
       <c r="E72" s="3">
-        <v>5126100</v>
+        <v>5018100</v>
       </c>
       <c r="F72" s="3">
-        <v>5301400</v>
+        <v>5189700</v>
       </c>
       <c r="G72" s="3">
-        <v>5109000</v>
+        <v>5001400</v>
       </c>
       <c r="H72" s="3">
-        <v>6220800</v>
+        <v>6089700</v>
       </c>
       <c r="I72" s="3">
-        <v>6527100</v>
+        <v>6389600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5714,12 +5888,12 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>10018900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5729,50 +5903,53 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>11619500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>13918500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>13121900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>13135200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>12986500</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>12828500</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>12629500</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,28 +6212,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4609400</v>
+        <v>4512300</v>
       </c>
       <c r="E76" s="3">
-        <v>4664700</v>
+        <v>4566400</v>
       </c>
       <c r="F76" s="3">
-        <v>4805500</v>
+        <v>4704200</v>
       </c>
       <c r="G76" s="3">
-        <v>4583100</v>
+        <v>4486500</v>
       </c>
       <c r="H76" s="3">
-        <v>5691700</v>
+        <v>5571800</v>
       </c>
       <c r="I76" s="3">
-        <v>5996900</v>
+        <v>5870500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6058,12 +6244,12 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>9451700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
@@ -6073,50 +6259,53 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>10970900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>13226200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>12391900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>12383200</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>12374400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>12278000</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>12278400</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>141900</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>538300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>326800</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>138900</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>527000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>487900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+        <v>320000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>313600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-398300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3923200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>741800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>429000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>515800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>869300</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1591900</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>777500</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="3">
         <v>1520000</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,31 +6608,32 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>316300</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>622500</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>305800</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-348100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>647500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -6442,62 +6641,65 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>710500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>429900</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>468900</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>412000</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>249800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>277000</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>278300</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3">
         <v>275200</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,31 +7140,34 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-562800</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>888300</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1407700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3900000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2521900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6958,62 +7175,65 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>2450400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2696100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>-173600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>2140900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>94200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1724900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>111600</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="3">
         <v>2248600</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7071,67 +7292,70 @@
         <v>-140500</v>
       </c>
       <c r="K91" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-227100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-260300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-263800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-207100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-204300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-246400</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-130400</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-187600</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,31 +7529,34 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-365000</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-518200</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-235700</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>566000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-796700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -7334,62 +7564,65 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-199900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>2316500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>83800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-34200</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>272000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-238300</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-413500</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-790700</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7432,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-463100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7444,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-390400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7453,11 +7687,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-145500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7465,11 +7699,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1023500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7477,11 +7711,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-987200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7489,11 +7723,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-980200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7501,13 +7735,16 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-811800</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,31 +8007,34 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>406000</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-2421800</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1067700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1506700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2551900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -7796,85 +8042,88 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-298700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3561900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-426000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1759300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-364300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1706200</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>681500</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-74800</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>81400</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>111500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>270600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-161400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -7882,85 +8131,88 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-118300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-138300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>16100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>21900</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-101000</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-58700</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>23200</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="3">
         <v>71900</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-596500</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>-1970400</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2599600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1556700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-988100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
@@ -7968,58 +8220,61 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>1833500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>1312400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-499700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>369300</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-99000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-278200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>402900</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3">
         <v>397000</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
